--- a/Activity_bar_chart.xlsx
+++ b/Activity_bar_chart.xlsx
@@ -1177,6 +1177,18 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1206,18 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3704,8 +3704,8 @@
   </sheetPr>
   <dimension ref="A1:BW231"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A216" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164:D165"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157:F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3739,13 +3739,13 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:75" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
@@ -3753,75 +3753,75 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
       <c r="S2" s="14"/>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
       <c r="AA2" s="15"/>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
       <c r="AG2" s="16"/>
-      <c r="AH2" s="26" t="s">
+      <c r="AH2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
       <c r="AP2" s="17"/>
-      <c r="AQ2" s="26" t="s">
+      <c r="AQ2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
     </row>
     <row r="3" spans="1:75" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -3848,12 +3848,12 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -4124,16 +4124,16 @@
       <c r="B7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-      <c r="D7" s="36">
-        <v>67</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26">
+        <v>67</v>
+      </c>
+      <c r="E7" s="26">
         <v>28</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="27">
         <v>5</v>
       </c>
       <c r="G7" s="4">
@@ -4155,16 +4155,16 @@
       <c r="B8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36">
-        <v>67</v>
-      </c>
-      <c r="E8" s="36">
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26">
+        <v>67</v>
+      </c>
+      <c r="E8" s="26">
         <v>33</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="27">
         <v>7</v>
       </c>
       <c r="G8" s="4">
@@ -4186,16 +4186,16 @@
       <c r="B9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-      <c r="D9" s="36">
-        <v>67</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26">
+        <v>67</v>
+      </c>
+      <c r="E9" s="26">
         <v>40</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="27">
         <v>7</v>
       </c>
       <c r="G9" s="4">
@@ -4217,16 +4217,16 @@
       <c r="B10" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-      <c r="D10" s="36">
-        <v>67</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26">
+        <v>67</v>
+      </c>
+      <c r="E10" s="26">
         <v>54</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="27">
         <v>7</v>
       </c>
       <c r="G10" s="4">
@@ -4248,16 +4248,16 @@
       <c r="B11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="36">
-        <v>1</v>
-      </c>
-      <c r="D11" s="36">
-        <v>67</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="C11" s="26">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26">
+        <v>67</v>
+      </c>
+      <c r="E11" s="26">
         <v>53</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="27">
         <v>5</v>
       </c>
       <c r="G11" s="4">
@@ -4279,16 +4279,16 @@
       <c r="B12" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="36">
-        <v>1</v>
-      </c>
-      <c r="D12" s="36">
-        <v>67</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26">
+        <v>67</v>
+      </c>
+      <c r="E12" s="26">
         <v>53</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="27">
         <v>7</v>
       </c>
       <c r="G12" s="4">
@@ -4310,16 +4310,16 @@
       <c r="B13" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36">
-        <v>67</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>67</v>
+      </c>
+      <c r="E13" s="26">
         <v>47</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="27">
         <v>7</v>
       </c>
       <c r="G13" s="4">
@@ -4341,16 +4341,16 @@
       <c r="B14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="36">
-        <v>1</v>
-      </c>
-      <c r="D14" s="36">
-        <v>67</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26">
+        <v>67</v>
+      </c>
+      <c r="E14" s="26">
         <v>47</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="27">
         <v>5</v>
       </c>
       <c r="G14" s="4">
@@ -4372,16 +4372,16 @@
       <c r="B15" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="26">
         <v>40</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="26">
         <v>28</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="26">
         <v>54</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="26">
         <v>14</v>
       </c>
       <c r="G15" s="4">
@@ -4403,16 +4403,16 @@
       <c r="B16" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="26">
         <v>40</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="26">
         <v>28</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="26">
         <v>54</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="26">
         <v>7</v>
       </c>
       <c r="G16" s="4">
@@ -4434,16 +4434,16 @@
       <c r="B17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="26">
         <v>40</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="26">
         <v>28</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="26">
         <v>54</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="26">
         <v>7</v>
       </c>
       <c r="G17" s="4">
@@ -4467,10 +4467,10 @@
       <c r="B18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="BP18" t="s">
         <v>15</v>
       </c>
@@ -4487,16 +4487,16 @@
       <c r="B19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36">
-        <v>67</v>
-      </c>
-      <c r="E19" s="36">
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26">
+        <v>67</v>
+      </c>
+      <c r="E19" s="26">
         <v>28</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="27">
         <v>5</v>
       </c>
       <c r="G19" s="4">
@@ -4518,16 +4518,16 @@
       <c r="B20" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-      <c r="D20" s="36">
-        <v>67</v>
-      </c>
-      <c r="E20" s="36">
+      <c r="C20" s="26">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26">
+        <v>67</v>
+      </c>
+      <c r="E20" s="26">
         <v>33</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="27">
         <v>7</v>
       </c>
       <c r="G20" s="4">
@@ -4549,16 +4549,16 @@
       <c r="B21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="36">
-        <v>1</v>
-      </c>
-      <c r="D21" s="36">
-        <v>67</v>
-      </c>
-      <c r="E21" s="36">
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26">
+        <v>67</v>
+      </c>
+      <c r="E21" s="26">
         <v>40</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="27">
         <v>7</v>
       </c>
       <c r="G21" s="4">
@@ -4580,16 +4580,16 @@
       <c r="B22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="36">
-        <v>1</v>
-      </c>
-      <c r="D22" s="36">
-        <v>67</v>
-      </c>
-      <c r="E22" s="36">
+      <c r="C22" s="26">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26">
+        <v>67</v>
+      </c>
+      <c r="E22" s="26">
         <v>54</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="27">
         <v>7</v>
       </c>
       <c r="G22" s="4">
@@ -4611,16 +4611,16 @@
       <c r="B23" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="36">
-        <v>1</v>
-      </c>
-      <c r="D23" s="36">
-        <v>67</v>
-      </c>
-      <c r="E23" s="36">
+      <c r="C23" s="26">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26">
+        <v>67</v>
+      </c>
+      <c r="E23" s="26">
         <v>53</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="27">
         <v>5</v>
       </c>
       <c r="G23" s="4">
@@ -4642,16 +4642,16 @@
       <c r="B24" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="36">
-        <v>1</v>
-      </c>
-      <c r="D24" s="36">
-        <v>67</v>
-      </c>
-      <c r="E24" s="36">
+      <c r="C24" s="26">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26">
+        <v>67</v>
+      </c>
+      <c r="E24" s="26">
         <v>53</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="27">
         <v>7</v>
       </c>
       <c r="G24" s="4">
@@ -4673,16 +4673,16 @@
       <c r="B25" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="36">
-        <v>1</v>
-      </c>
-      <c r="D25" s="36">
-        <v>67</v>
-      </c>
-      <c r="E25" s="36">
+      <c r="C25" s="26">
+        <v>1</v>
+      </c>
+      <c r="D25" s="26">
+        <v>67</v>
+      </c>
+      <c r="E25" s="26">
         <v>47</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="27">
         <v>7</v>
       </c>
       <c r="G25" s="4">
@@ -4704,16 +4704,16 @@
       <c r="B26" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="36">
-        <v>1</v>
-      </c>
-      <c r="D26" s="36">
-        <v>67</v>
-      </c>
-      <c r="E26" s="36">
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26">
+        <v>67</v>
+      </c>
+      <c r="E26" s="26">
         <v>47</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="27">
         <v>5</v>
       </c>
       <c r="G26" s="4">
@@ -4734,16 +4734,16 @@
       <c r="B27" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="26">
         <v>40</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="26">
         <v>28</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="26">
         <v>54</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="26">
         <v>14</v>
       </c>
       <c r="G27" s="4">
@@ -4764,16 +4764,16 @@
       <c r="B28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="26">
         <v>40</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="26">
         <v>28</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="26">
         <v>54</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="26">
         <v>7</v>
       </c>
       <c r="G28" s="4">
@@ -4794,16 +4794,16 @@
       <c r="B29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="26">
         <v>40</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="26">
         <v>28</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="26">
         <v>54</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="26">
         <v>7</v>
       </c>
       <c r="G29" s="4">
@@ -4827,10 +4827,10 @@
       <c r="B30" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
       <c r="BP30" t="s">
         <v>15</v>
       </c>
@@ -4847,16 +4847,16 @@
       <c r="B31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="36">
-        <v>67</v>
-      </c>
-      <c r="E31" s="36">
+      <c r="C31" s="26">
+        <v>1</v>
+      </c>
+      <c r="D31" s="26">
+        <v>67</v>
+      </c>
+      <c r="E31" s="26">
         <v>28</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="27">
         <v>5</v>
       </c>
       <c r="G31" s="4">
@@ -4878,16 +4878,16 @@
       <c r="B32" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="36">
-        <v>1</v>
-      </c>
-      <c r="D32" s="36">
-        <v>67</v>
-      </c>
-      <c r="E32" s="36">
+      <c r="C32" s="26">
+        <v>1</v>
+      </c>
+      <c r="D32" s="26">
+        <v>67</v>
+      </c>
+      <c r="E32" s="26">
         <v>33</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="27">
         <v>7</v>
       </c>
       <c r="G32" s="4">
@@ -4909,16 +4909,16 @@
       <c r="B33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="36">
-        <v>1</v>
-      </c>
-      <c r="D33" s="36">
-        <v>67</v>
-      </c>
-      <c r="E33" s="36">
+      <c r="C33" s="26">
+        <v>1</v>
+      </c>
+      <c r="D33" s="26">
+        <v>67</v>
+      </c>
+      <c r="E33" s="26">
         <v>40</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="27">
         <v>7</v>
       </c>
       <c r="G33" s="4">
@@ -4940,16 +4940,16 @@
       <c r="B34" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="36">
-        <v>1</v>
-      </c>
-      <c r="D34" s="36">
-        <v>67</v>
-      </c>
-      <c r="E34" s="36">
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="26">
+        <v>67</v>
+      </c>
+      <c r="E34" s="26">
         <v>54</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="27">
         <v>7</v>
       </c>
       <c r="G34" s="4">
@@ -4971,16 +4971,16 @@
       <c r="B35" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="36">
-        <v>1</v>
-      </c>
-      <c r="D35" s="36">
-        <v>67</v>
-      </c>
-      <c r="E35" s="36">
+      <c r="C35" s="26">
+        <v>1</v>
+      </c>
+      <c r="D35" s="26">
+        <v>67</v>
+      </c>
+      <c r="E35" s="26">
         <v>53</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="27">
         <v>5</v>
       </c>
       <c r="G35" s="4">
@@ -5002,16 +5002,16 @@
       <c r="B36" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="36">
-        <v>67</v>
-      </c>
-      <c r="E36" s="36">
+      <c r="C36" s="26">
+        <v>1</v>
+      </c>
+      <c r="D36" s="26">
+        <v>67</v>
+      </c>
+      <c r="E36" s="26">
         <v>53</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="27">
         <v>7</v>
       </c>
       <c r="G36" s="4">
@@ -5033,16 +5033,16 @@
       <c r="B37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="36">
-        <v>1</v>
-      </c>
-      <c r="D37" s="36">
-        <v>67</v>
-      </c>
-      <c r="E37" s="36">
+      <c r="C37" s="26">
+        <v>1</v>
+      </c>
+      <c r="D37" s="26">
+        <v>67</v>
+      </c>
+      <c r="E37" s="26">
         <v>47</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="27">
         <v>7</v>
       </c>
       <c r="G37" s="4">
@@ -5064,16 +5064,16 @@
       <c r="B38" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="36">
-        <v>1</v>
-      </c>
-      <c r="D38" s="36">
-        <v>67</v>
-      </c>
-      <c r="E38" s="36">
+      <c r="C38" s="26">
+        <v>1</v>
+      </c>
+      <c r="D38" s="26">
+        <v>67</v>
+      </c>
+      <c r="E38" s="26">
         <v>47</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="27">
         <v>5</v>
       </c>
       <c r="G38" s="4">
@@ -5094,16 +5094,16 @@
       <c r="B39" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="26">
         <v>40</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="26">
         <v>28</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="26">
         <v>54</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="26">
         <v>14</v>
       </c>
       <c r="G39" s="4">
@@ -5124,16 +5124,16 @@
       <c r="B40" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="26">
         <v>40</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="26">
         <v>28</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="26">
         <v>54</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="26">
         <v>7</v>
       </c>
       <c r="G40" s="4">
@@ -5154,16 +5154,16 @@
       <c r="B41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="26">
         <v>40</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="26">
         <v>28</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="26">
         <v>54</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="26">
         <v>7</v>
       </c>
       <c r="G41" s="4">
@@ -5187,10 +5187,10 @@
       <c r="B42" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
       <c r="BP42" t="s">
         <v>15</v>
       </c>
@@ -5207,16 +5207,16 @@
       <c r="B43" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="36">
-        <v>1</v>
-      </c>
-      <c r="D43" s="36">
-        <v>67</v>
-      </c>
-      <c r="E43" s="36">
+      <c r="C43" s="26">
+        <v>1</v>
+      </c>
+      <c r="D43" s="26">
+        <v>67</v>
+      </c>
+      <c r="E43" s="26">
         <v>28</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="27">
         <v>5</v>
       </c>
       <c r="G43" s="4">
@@ -5238,16 +5238,16 @@
       <c r="B44" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="36">
-        <v>1</v>
-      </c>
-      <c r="D44" s="36">
-        <v>67</v>
-      </c>
-      <c r="E44" s="36">
+      <c r="C44" s="26">
+        <v>1</v>
+      </c>
+      <c r="D44" s="26">
+        <v>67</v>
+      </c>
+      <c r="E44" s="26">
         <v>33</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="27">
         <v>7</v>
       </c>
       <c r="G44" s="4">
@@ -5269,16 +5269,16 @@
       <c r="B45" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="36">
-        <v>1</v>
-      </c>
-      <c r="D45" s="36">
-        <v>67</v>
-      </c>
-      <c r="E45" s="36">
+      <c r="C45" s="26">
+        <v>1</v>
+      </c>
+      <c r="D45" s="26">
+        <v>67</v>
+      </c>
+      <c r="E45" s="26">
         <v>40</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="27">
         <v>7</v>
       </c>
       <c r="G45" s="4">
@@ -5300,16 +5300,16 @@
       <c r="B46" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="36">
-        <v>1</v>
-      </c>
-      <c r="D46" s="36">
-        <v>67</v>
-      </c>
-      <c r="E46" s="36">
+      <c r="C46" s="26">
+        <v>1</v>
+      </c>
+      <c r="D46" s="26">
+        <v>67</v>
+      </c>
+      <c r="E46" s="26">
         <v>54</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="27">
         <v>7</v>
       </c>
       <c r="G46" s="4">
@@ -5331,16 +5331,16 @@
       <c r="B47" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="36">
-        <v>1</v>
-      </c>
-      <c r="D47" s="36">
-        <v>67</v>
-      </c>
-      <c r="E47" s="36">
+      <c r="C47" s="26">
+        <v>1</v>
+      </c>
+      <c r="D47" s="26">
+        <v>67</v>
+      </c>
+      <c r="E47" s="26">
         <v>53</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="27">
         <v>5</v>
       </c>
       <c r="G47" s="4">
@@ -5362,16 +5362,16 @@
       <c r="B48" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="36">
-        <v>1</v>
-      </c>
-      <c r="D48" s="36">
-        <v>67</v>
-      </c>
-      <c r="E48" s="36">
+      <c r="C48" s="26">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26">
+        <v>67</v>
+      </c>
+      <c r="E48" s="26">
         <v>53</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="27">
         <v>7</v>
       </c>
       <c r="G48" s="4">
@@ -5393,16 +5393,16 @@
       <c r="B49" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="36">
-        <v>1</v>
-      </c>
-      <c r="D49" s="36">
-        <v>67</v>
-      </c>
-      <c r="E49" s="36">
+      <c r="C49" s="26">
+        <v>1</v>
+      </c>
+      <c r="D49" s="26">
+        <v>67</v>
+      </c>
+      <c r="E49" s="26">
         <v>47</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="27">
         <v>7</v>
       </c>
       <c r="G49" s="4">
@@ -5424,16 +5424,16 @@
       <c r="B50" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="36">
-        <v>1</v>
-      </c>
-      <c r="D50" s="36">
-        <v>67</v>
-      </c>
-      <c r="E50" s="36">
+      <c r="C50" s="26">
+        <v>1</v>
+      </c>
+      <c r="D50" s="26">
+        <v>67</v>
+      </c>
+      <c r="E50" s="26">
         <v>47</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="27">
         <v>5</v>
       </c>
       <c r="G50" s="4">
@@ -5454,16 +5454,16 @@
       <c r="B51" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="26">
         <v>40</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="26">
         <v>28</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="26">
         <v>54</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="26">
         <v>14</v>
       </c>
       <c r="G51" s="4">
@@ -5484,16 +5484,16 @@
       <c r="B52" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="26">
         <v>40</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="26">
         <v>28</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="26">
         <v>54</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="26">
         <v>7</v>
       </c>
       <c r="G52" s="4">
@@ -5514,16 +5514,16 @@
       <c r="B53" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="26">
         <v>40</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="26">
         <v>28</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="26">
         <v>54</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="26">
         <v>7</v>
       </c>
       <c r="G53" s="4">
@@ -5544,16 +5544,16 @@
       <c r="B54" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="26">
         <v>40</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="26">
         <v>28</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="26">
         <v>54</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="27">
         <v>1</v>
       </c>
       <c r="G54" s="4">
@@ -5577,10 +5577,10 @@
       <c r="B55" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="37"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
       <c r="BP55" t="s">
         <v>15</v>
       </c>
@@ -5597,16 +5597,16 @@
       <c r="B56" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="36">
-        <v>1</v>
-      </c>
-      <c r="D56" s="36">
-        <v>67</v>
-      </c>
-      <c r="E56" s="36">
+      <c r="C56" s="26">
+        <v>1</v>
+      </c>
+      <c r="D56" s="26">
+        <v>67</v>
+      </c>
+      <c r="E56" s="26">
         <v>40</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="27">
         <v>4</v>
       </c>
       <c r="G56" s="4">
@@ -5628,16 +5628,16 @@
       <c r="B57" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="36">
-        <v>1</v>
-      </c>
-      <c r="D57" s="36">
-        <v>67</v>
-      </c>
-      <c r="E57" s="36">
+      <c r="C57" s="26">
+        <v>1</v>
+      </c>
+      <c r="D57" s="26">
+        <v>67</v>
+      </c>
+      <c r="E57" s="26">
         <v>54</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="27">
         <v>1</v>
       </c>
       <c r="G57" s="4">
@@ -5659,16 +5659,16 @@
       <c r="B58" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="36">
-        <v>1</v>
-      </c>
-      <c r="D58" s="36">
-        <v>67</v>
-      </c>
-      <c r="E58" s="36">
+      <c r="C58" s="26">
+        <v>1</v>
+      </c>
+      <c r="D58" s="26">
+        <v>67</v>
+      </c>
+      <c r="E58" s="26">
         <v>53</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="27">
         <v>2</v>
       </c>
       <c r="G58" s="4">
@@ -5690,16 +5690,16 @@
       <c r="B59" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="36">
-        <v>1</v>
-      </c>
-      <c r="D59" s="36">
-        <v>67</v>
-      </c>
-      <c r="E59" s="36">
+      <c r="C59" s="26">
+        <v>1</v>
+      </c>
+      <c r="D59" s="26">
+        <v>67</v>
+      </c>
+      <c r="E59" s="26">
         <v>53</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="27">
         <v>5</v>
       </c>
       <c r="G59" s="4">
@@ -5721,16 +5721,16 @@
       <c r="B60" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="36">
-        <v>1</v>
-      </c>
-      <c r="D60" s="36">
-        <v>67</v>
-      </c>
-      <c r="E60" s="36">
+      <c r="C60" s="26">
+        <v>1</v>
+      </c>
+      <c r="D60" s="26">
+        <v>67</v>
+      </c>
+      <c r="E60" s="26">
         <v>47</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="27">
         <v>3</v>
       </c>
       <c r="G60" s="4">
@@ -5752,16 +5752,16 @@
       <c r="B61" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="36">
-        <v>1</v>
-      </c>
-      <c r="D61" s="36">
-        <v>67</v>
-      </c>
-      <c r="E61" s="36">
+      <c r="C61" s="26">
+        <v>1</v>
+      </c>
+      <c r="D61" s="26">
+        <v>67</v>
+      </c>
+      <c r="E61" s="26">
         <v>47</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="27">
         <v>2</v>
       </c>
       <c r="G61" s="4">
@@ -5783,16 +5783,16 @@
       <c r="B62" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="26">
         <v>40</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="26">
         <v>28</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="26">
         <v>54</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="26">
         <v>1</v>
       </c>
       <c r="G62" s="4">
@@ -5814,16 +5814,16 @@
       <c r="B63" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="26">
         <v>40</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="26">
         <v>28</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="26">
         <v>54</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="26">
         <v>2</v>
       </c>
       <c r="G63" s="4">
@@ -5844,14 +5844,14 @@
       <c r="B64" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="26">
         <v>40</v>
       </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36">
+      <c r="D64" s="26"/>
+      <c r="E64" s="26">
         <v>54</v>
       </c>
-      <c r="F64" s="36"/>
+      <c r="F64" s="26"/>
       <c r="G64" s="4">
         <v>1</v>
       </c>
@@ -5870,16 +5870,16 @@
       <c r="B65" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="26">
         <v>40</v>
       </c>
-      <c r="D65" s="36">
-        <v>67</v>
-      </c>
-      <c r="E65" s="36">
+      <c r="D65" s="26">
+        <v>67</v>
+      </c>
+      <c r="E65" s="26">
         <v>54</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="28">
         <v>13</v>
       </c>
       <c r="G65" s="4">
@@ -5900,16 +5900,16 @@
       <c r="B66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="26">
         <v>40</v>
       </c>
-      <c r="D66" s="36">
-        <v>67</v>
-      </c>
-      <c r="E66" s="36">
+      <c r="D66" s="26">
+        <v>67</v>
+      </c>
+      <c r="E66" s="26">
         <v>54</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="28">
         <v>13</v>
       </c>
       <c r="G66" s="4">
@@ -5930,16 +5930,16 @@
       <c r="B67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="36">
+      <c r="C67" s="26">
         <v>40</v>
       </c>
-      <c r="D67" s="36">
-        <v>67</v>
-      </c>
-      <c r="E67" s="36">
+      <c r="D67" s="26">
+        <v>67</v>
+      </c>
+      <c r="E67" s="26">
         <v>54</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="28">
         <v>5</v>
       </c>
       <c r="G67" s="4">
@@ -5960,16 +5960,16 @@
       <c r="B68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="26">
         <v>40</v>
       </c>
-      <c r="D68" s="36">
-        <v>67</v>
-      </c>
-      <c r="E68" s="36">
+      <c r="D68" s="26">
+        <v>67</v>
+      </c>
+      <c r="E68" s="26">
         <v>54</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="28">
         <v>2</v>
       </c>
       <c r="G68" s="4">
@@ -5993,10 +5993,10 @@
       <c r="B69" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="38"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="28"/>
       <c r="BP69" t="s">
         <v>15</v>
       </c>
@@ -6013,16 +6013,16 @@
       <c r="B70" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="36">
-        <v>1</v>
-      </c>
-      <c r="D70" s="36">
-        <v>67</v>
-      </c>
-      <c r="E70" s="36">
+      <c r="C70" s="26">
+        <v>1</v>
+      </c>
+      <c r="D70" s="26">
+        <v>67</v>
+      </c>
+      <c r="E70" s="26">
         <v>53</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="28">
         <v>6</v>
       </c>
       <c r="G70" s="4">
@@ -6044,16 +6044,16 @@
       <c r="B71" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="36">
-        <v>1</v>
-      </c>
-      <c r="D71" s="36">
-        <v>67</v>
-      </c>
-      <c r="E71" s="36">
+      <c r="C71" s="26">
+        <v>1</v>
+      </c>
+      <c r="D71" s="26">
+        <v>67</v>
+      </c>
+      <c r="E71" s="26">
         <v>47</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="28">
         <v>6</v>
       </c>
       <c r="G71" s="4">
@@ -6075,16 +6075,16 @@
       <c r="B72" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="36">
-        <v>1</v>
-      </c>
-      <c r="D72" s="36">
-        <v>67</v>
-      </c>
-      <c r="E72" s="36">
+      <c r="C72" s="26">
+        <v>1</v>
+      </c>
+      <c r="D72" s="26">
+        <v>67</v>
+      </c>
+      <c r="E72" s="26">
         <v>47</v>
       </c>
-      <c r="F72" s="37">
+      <c r="F72" s="27">
         <v>18</v>
       </c>
       <c r="G72" s="4">
@@ -6106,16 +6106,16 @@
       <c r="B73" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="36">
+      <c r="C73" s="26">
         <v>40</v>
       </c>
-      <c r="D73" s="36">
+      <c r="D73" s="26">
         <v>28</v>
       </c>
-      <c r="E73" s="36">
+      <c r="E73" s="26">
         <v>54</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="26">
         <v>19</v>
       </c>
       <c r="G73" s="4">
@@ -6137,16 +6137,16 @@
       <c r="B74" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="36">
+      <c r="C74" s="26">
         <v>40</v>
       </c>
-      <c r="D74" s="36">
+      <c r="D74" s="26">
         <v>28</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="26">
         <v>54</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="26">
         <v>19</v>
       </c>
       <c r="G74" s="4">
@@ -6168,16 +6168,16 @@
       <c r="B75" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="26">
         <v>40</v>
       </c>
-      <c r="D75" s="36">
+      <c r="D75" s="26">
         <v>28</v>
       </c>
-      <c r="E75" s="36">
+      <c r="E75" s="26">
         <v>54</v>
       </c>
-      <c r="F75" s="36">
+      <c r="F75" s="26">
         <v>19</v>
       </c>
       <c r="G75" s="4">
@@ -6199,16 +6199,16 @@
       <c r="B76" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C76" s="26">
         <v>40</v>
       </c>
-      <c r="D76" s="36">
+      <c r="D76" s="26">
         <v>28</v>
       </c>
-      <c r="E76" s="36">
+      <c r="E76" s="26">
         <v>54</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="26">
         <v>19</v>
       </c>
       <c r="G76" s="4">
@@ -6230,16 +6230,16 @@
       <c r="B77" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="36">
+      <c r="C77" s="26">
         <v>40</v>
       </c>
-      <c r="D77" s="36">
+      <c r="D77" s="26">
         <v>28</v>
       </c>
-      <c r="E77" s="36">
+      <c r="E77" s="26">
         <v>54</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F77" s="26">
         <v>19</v>
       </c>
       <c r="G77" s="4">
@@ -6260,16 +6260,16 @@
       <c r="B78" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="36">
+      <c r="C78" s="26">
         <v>40</v>
       </c>
-      <c r="D78" s="36">
-        <v>67</v>
-      </c>
-      <c r="E78" s="36">
+      <c r="D78" s="26">
+        <v>67</v>
+      </c>
+      <c r="E78" s="26">
         <v>54</v>
       </c>
-      <c r="F78" s="36">
+      <c r="F78" s="26">
         <v>4</v>
       </c>
       <c r="G78" s="4">
@@ -6290,16 +6290,16 @@
       <c r="B79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C79" s="26">
         <v>40</v>
       </c>
-      <c r="D79" s="36">
-        <v>67</v>
-      </c>
-      <c r="E79" s="36">
+      <c r="D79" s="26">
+        <v>67</v>
+      </c>
+      <c r="E79" s="26">
         <v>54</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="28">
         <v>5</v>
       </c>
       <c r="G79" s="4">
@@ -6320,16 +6320,16 @@
       <c r="B80" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="36">
+      <c r="C80" s="26">
         <v>40</v>
       </c>
-      <c r="D80" s="36">
-        <v>67</v>
-      </c>
-      <c r="E80" s="36">
+      <c r="D80" s="26">
+        <v>67</v>
+      </c>
+      <c r="E80" s="26">
         <v>54</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="28">
         <v>6</v>
       </c>
       <c r="G80" s="4">
@@ -6350,16 +6350,16 @@
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="36">
+      <c r="C81" s="26">
         <v>40</v>
       </c>
-      <c r="D81" s="36">
-        <v>67</v>
-      </c>
-      <c r="E81" s="36">
+      <c r="D81" s="26">
+        <v>67</v>
+      </c>
+      <c r="E81" s="26">
         <v>54</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="28">
         <v>5</v>
       </c>
       <c r="G81" s="4">
@@ -6380,16 +6380,16 @@
       <c r="B82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="36">
+      <c r="C82" s="26">
         <v>40</v>
       </c>
-      <c r="D82" s="36">
-        <v>67</v>
-      </c>
-      <c r="E82" s="36">
+      <c r="D82" s="26">
+        <v>67</v>
+      </c>
+      <c r="E82" s="26">
         <v>54</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="28">
         <v>2</v>
       </c>
       <c r="G82" s="4">
@@ -6413,10 +6413,10 @@
       <c r="B83" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="38"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="28"/>
       <c r="BP83" t="s">
         <v>15</v>
       </c>
@@ -6433,16 +6433,16 @@
       <c r="B84" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="36">
-        <v>1</v>
-      </c>
-      <c r="D84" s="36">
-        <v>67</v>
-      </c>
-      <c r="E84" s="36">
+      <c r="C84" s="26">
+        <v>1</v>
+      </c>
+      <c r="D84" s="26">
+        <v>67</v>
+      </c>
+      <c r="E84" s="26">
         <v>53</v>
       </c>
-      <c r="F84" s="38">
+      <c r="F84" s="28">
         <v>6</v>
       </c>
       <c r="G84" s="4">
@@ -6464,16 +6464,16 @@
       <c r="B85" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="36">
-        <v>1</v>
-      </c>
-      <c r="D85" s="36">
-        <v>67</v>
-      </c>
-      <c r="E85" s="36">
+      <c r="C85" s="26">
+        <v>1</v>
+      </c>
+      <c r="D85" s="26">
+        <v>67</v>
+      </c>
+      <c r="E85" s="26">
         <v>47</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="28">
         <v>6</v>
       </c>
       <c r="G85" s="4">
@@ -6495,16 +6495,16 @@
       <c r="B86" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="36">
-        <v>1</v>
-      </c>
-      <c r="D86" s="36">
-        <v>67</v>
-      </c>
-      <c r="E86" s="36">
+      <c r="C86" s="26">
+        <v>1</v>
+      </c>
+      <c r="D86" s="26">
+        <v>67</v>
+      </c>
+      <c r="E86" s="26">
         <v>47</v>
       </c>
-      <c r="F86" s="37">
+      <c r="F86" s="27">
         <v>18</v>
       </c>
       <c r="G86" s="4">
@@ -6526,16 +6526,16 @@
       <c r="B87" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C87" s="26">
         <v>40</v>
       </c>
-      <c r="D87" s="36">
+      <c r="D87" s="26">
         <v>28</v>
       </c>
-      <c r="E87" s="36">
+      <c r="E87" s="26">
         <v>54</v>
       </c>
-      <c r="F87" s="36">
+      <c r="F87" s="26">
         <v>19</v>
       </c>
       <c r="G87" s="4">
@@ -6557,16 +6557,16 @@
       <c r="B88" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="36">
+      <c r="C88" s="26">
         <v>40</v>
       </c>
-      <c r="D88" s="36">
+      <c r="D88" s="26">
         <v>28</v>
       </c>
-      <c r="E88" s="36">
+      <c r="E88" s="26">
         <v>54</v>
       </c>
-      <c r="F88" s="36">
+      <c r="F88" s="26">
         <v>19</v>
       </c>
       <c r="G88" s="4">
@@ -6588,12 +6588,12 @@
       <c r="B89" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="36">
+      <c r="C89" s="26">
         <v>40</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
       <c r="G89" s="4">
         <v>1</v>
       </c>
@@ -6613,16 +6613,16 @@
       <c r="B90" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="36">
-        <v>1</v>
-      </c>
-      <c r="D90" s="36">
-        <v>67</v>
-      </c>
-      <c r="E90" s="36">
+      <c r="C90" s="26">
+        <v>1</v>
+      </c>
+      <c r="D90" s="26">
+        <v>67</v>
+      </c>
+      <c r="E90" s="26">
         <v>28</v>
       </c>
-      <c r="F90" s="37">
+      <c r="F90" s="27">
         <v>1</v>
       </c>
       <c r="G90" s="4">
@@ -6644,16 +6644,16 @@
       <c r="B91" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="36">
-        <v>1</v>
-      </c>
-      <c r="D91" s="36">
-        <v>67</v>
-      </c>
-      <c r="E91" s="36">
+      <c r="C91" s="26">
+        <v>1</v>
+      </c>
+      <c r="D91" s="26">
+        <v>67</v>
+      </c>
+      <c r="E91" s="26">
         <v>33</v>
       </c>
-      <c r="F91" s="37">
+      <c r="F91" s="27">
         <v>3</v>
       </c>
       <c r="G91" s="4">
@@ -6674,16 +6674,16 @@
       <c r="B92" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C92" s="36">
-        <v>1</v>
-      </c>
-      <c r="D92" s="36">
-        <v>67</v>
-      </c>
-      <c r="E92" s="36">
+      <c r="C92" s="26">
+        <v>1</v>
+      </c>
+      <c r="D92" s="26">
+        <v>67</v>
+      </c>
+      <c r="E92" s="26">
         <v>40</v>
       </c>
-      <c r="F92" s="37">
+      <c r="F92" s="27">
         <v>4</v>
       </c>
       <c r="G92" s="4">
@@ -6704,16 +6704,16 @@
       <c r="B93" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="36">
-        <v>1</v>
-      </c>
-      <c r="D93" s="36">
-        <v>67</v>
-      </c>
-      <c r="E93" s="36">
+      <c r="C93" s="26">
+        <v>1</v>
+      </c>
+      <c r="D93" s="26">
+        <v>67</v>
+      </c>
+      <c r="E93" s="26">
         <v>54</v>
       </c>
-      <c r="F93" s="37">
+      <c r="F93" s="27">
         <v>4</v>
       </c>
       <c r="G93" s="4">
@@ -6737,10 +6737,10 @@
       <c r="B94" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="37"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="27"/>
       <c r="BP94" t="s">
         <v>15</v>
       </c>
@@ -6757,16 +6757,16 @@
       <c r="B95" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="36">
-        <v>1</v>
-      </c>
-      <c r="D95" s="36">
-        <v>67</v>
-      </c>
-      <c r="E95" s="36">
+      <c r="C95" s="26">
+        <v>1</v>
+      </c>
+      <c r="D95" s="26">
+        <v>67</v>
+      </c>
+      <c r="E95" s="26">
         <v>53</v>
       </c>
-      <c r="F95" s="37">
+      <c r="F95" s="27">
         <v>5</v>
       </c>
       <c r="G95" s="4">
@@ -6788,16 +6788,16 @@
       <c r="B96" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="36">
-        <v>1</v>
-      </c>
-      <c r="D96" s="36">
-        <v>67</v>
-      </c>
-      <c r="E96" s="36">
+      <c r="C96" s="26">
+        <v>1</v>
+      </c>
+      <c r="D96" s="26">
+        <v>67</v>
+      </c>
+      <c r="E96" s="26">
         <v>47</v>
       </c>
-      <c r="F96" s="37">
+      <c r="F96" s="27">
         <v>6</v>
       </c>
       <c r="G96" s="4">
@@ -6819,16 +6819,16 @@
       <c r="B97" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="36">
-        <v>1</v>
-      </c>
-      <c r="D97" s="36">
-        <v>67</v>
-      </c>
-      <c r="E97" s="36">
+      <c r="C97" s="26">
+        <v>1</v>
+      </c>
+      <c r="D97" s="26">
+        <v>67</v>
+      </c>
+      <c r="E97" s="26">
         <v>47</v>
       </c>
-      <c r="F97" s="37">
+      <c r="F97" s="27">
         <v>6</v>
       </c>
       <c r="G97" s="4">
@@ -6850,16 +6850,16 @@
       <c r="B98" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="36">
+      <c r="C98" s="26">
         <v>40</v>
       </c>
-      <c r="D98" s="36">
+      <c r="D98" s="26">
         <v>28</v>
       </c>
-      <c r="E98" s="36">
+      <c r="E98" s="26">
         <v>54</v>
       </c>
-      <c r="F98" s="36">
+      <c r="F98" s="26">
         <v>12</v>
       </c>
       <c r="G98" s="4">
@@ -6881,16 +6881,16 @@
       <c r="B99" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="26">
         <v>40</v>
       </c>
-      <c r="D99" s="36">
+      <c r="D99" s="26">
         <v>28</v>
       </c>
-      <c r="E99" s="36">
+      <c r="E99" s="26">
         <v>54</v>
       </c>
-      <c r="F99" s="36">
+      <c r="F99" s="26">
         <v>14</v>
       </c>
       <c r="G99" s="4">
@@ -6912,16 +6912,16 @@
       <c r="B100" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="36">
+      <c r="C100" s="26">
         <v>40</v>
       </c>
-      <c r="D100" s="36">
+      <c r="D100" s="26">
         <v>28</v>
       </c>
-      <c r="E100" s="36">
+      <c r="E100" s="26">
         <v>54</v>
       </c>
-      <c r="F100" s="36">
+      <c r="F100" s="26">
         <v>12</v>
       </c>
       <c r="G100" s="4">
@@ -6943,16 +6943,16 @@
       <c r="B101" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="36">
+      <c r="C101" s="26">
         <v>40</v>
       </c>
-      <c r="D101" s="36">
+      <c r="D101" s="26">
         <v>28</v>
       </c>
-      <c r="E101" s="36">
+      <c r="E101" s="26">
         <v>54</v>
       </c>
-      <c r="F101" s="36">
+      <c r="F101" s="26">
         <v>14</v>
       </c>
       <c r="G101" s="4">
@@ -6974,16 +6974,16 @@
       <c r="B102" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="36">
+      <c r="C102" s="26">
         <v>40</v>
       </c>
-      <c r="D102" s="36">
+      <c r="D102" s="26">
         <v>28</v>
       </c>
-      <c r="E102" s="36">
+      <c r="E102" s="26">
         <v>54</v>
       </c>
-      <c r="F102" s="36">
+      <c r="F102" s="26">
         <v>19</v>
       </c>
       <c r="G102" s="4">
@@ -7004,16 +7004,16 @@
       <c r="B103" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="26">
         <v>40</v>
       </c>
-      <c r="D103" s="36">
-        <v>67</v>
-      </c>
-      <c r="E103" s="36">
+      <c r="D103" s="26">
+        <v>67</v>
+      </c>
+      <c r="E103" s="26">
         <v>54</v>
       </c>
-      <c r="F103" s="36">
+      <c r="F103" s="26">
         <v>1</v>
       </c>
       <c r="G103" s="4">
@@ -7034,16 +7034,16 @@
       <c r="B104" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="36">
+      <c r="C104" s="26">
         <v>40</v>
       </c>
-      <c r="D104" s="36">
-        <v>67</v>
-      </c>
-      <c r="E104" s="36">
+      <c r="D104" s="26">
+        <v>67</v>
+      </c>
+      <c r="E104" s="26">
         <v>28</v>
       </c>
-      <c r="F104" s="37">
+      <c r="F104" s="27">
         <v>1</v>
       </c>
       <c r="G104" s="4">
@@ -7064,16 +7064,16 @@
       <c r="B105" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="36">
+      <c r="C105" s="26">
         <v>40</v>
       </c>
-      <c r="D105" s="36">
-        <v>67</v>
-      </c>
-      <c r="E105" s="36">
+      <c r="D105" s="26">
+        <v>67</v>
+      </c>
+      <c r="E105" s="26">
         <v>33</v>
       </c>
-      <c r="F105" s="37">
+      <c r="F105" s="27">
         <v>3</v>
       </c>
       <c r="G105" s="4">
@@ -7094,16 +7094,16 @@
       <c r="B106" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C106" s="36">
+      <c r="C106" s="26">
         <v>40</v>
       </c>
-      <c r="D106" s="36">
-        <v>67</v>
-      </c>
-      <c r="E106" s="36">
+      <c r="D106" s="26">
+        <v>67</v>
+      </c>
+      <c r="E106" s="26">
         <v>40</v>
       </c>
-      <c r="F106" s="37">
+      <c r="F106" s="27">
         <v>4</v>
       </c>
       <c r="G106" s="4">
@@ -7124,16 +7124,16 @@
       <c r="B107" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="36">
+      <c r="C107" s="26">
         <v>40</v>
       </c>
-      <c r="D107" s="36">
-        <v>67</v>
-      </c>
-      <c r="E107" s="36">
+      <c r="D107" s="26">
+        <v>67</v>
+      </c>
+      <c r="E107" s="26">
         <v>54</v>
       </c>
-      <c r="F107" s="37">
+      <c r="F107" s="27">
         <v>4</v>
       </c>
       <c r="G107" s="4">
@@ -7157,10 +7157,10 @@
       <c r="B108" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="37"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="27"/>
       <c r="BP108" t="s">
         <v>15</v>
       </c>
@@ -7177,16 +7177,16 @@
       <c r="B109" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C109" s="36">
-        <v>1</v>
-      </c>
-      <c r="D109" s="36">
-        <v>67</v>
-      </c>
-      <c r="E109" s="36">
+      <c r="C109" s="26">
+        <v>1</v>
+      </c>
+      <c r="D109" s="26">
+        <v>67</v>
+      </c>
+      <c r="E109" s="26">
         <v>53</v>
       </c>
-      <c r="F109" s="37">
+      <c r="F109" s="27">
         <v>5</v>
       </c>
       <c r="G109" s="4">
@@ -7208,16 +7208,16 @@
       <c r="B110" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="36">
-        <v>1</v>
-      </c>
-      <c r="D110" s="36">
-        <v>67</v>
-      </c>
-      <c r="E110" s="36">
+      <c r="C110" s="26">
+        <v>1</v>
+      </c>
+      <c r="D110" s="26">
+        <v>67</v>
+      </c>
+      <c r="E110" s="26">
         <v>47</v>
       </c>
-      <c r="F110" s="37">
+      <c r="F110" s="27">
         <v>6</v>
       </c>
       <c r="G110" s="4">
@@ -7239,16 +7239,16 @@
       <c r="B111" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C111" s="36">
-        <v>1</v>
-      </c>
-      <c r="D111" s="36">
-        <v>67</v>
-      </c>
-      <c r="E111" s="36">
+      <c r="C111" s="26">
+        <v>1</v>
+      </c>
+      <c r="D111" s="26">
+        <v>67</v>
+      </c>
+      <c r="E111" s="26">
         <v>47</v>
       </c>
-      <c r="F111" s="37">
+      <c r="F111" s="27">
         <v>6</v>
       </c>
       <c r="G111" s="4">
@@ -7270,16 +7270,16 @@
       <c r="B112" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="36">
+      <c r="C112" s="26">
         <v>40</v>
       </c>
-      <c r="D112" s="36">
+      <c r="D112" s="26">
         <v>28</v>
       </c>
-      <c r="E112" s="36">
+      <c r="E112" s="26">
         <v>54</v>
       </c>
-      <c r="F112" s="36">
+      <c r="F112" s="26">
         <v>12</v>
       </c>
       <c r="G112" s="4">
@@ -7301,16 +7301,16 @@
       <c r="B113" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C113" s="36">
+      <c r="C113" s="26">
         <v>40</v>
       </c>
-      <c r="D113" s="36">
+      <c r="D113" s="26">
         <v>28</v>
       </c>
-      <c r="E113" s="36">
+      <c r="E113" s="26">
         <v>54</v>
       </c>
-      <c r="F113" s="36">
+      <c r="F113" s="26">
         <v>14</v>
       </c>
       <c r="G113" s="4">
@@ -7332,16 +7332,16 @@
       <c r="B114" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C114" s="36">
+      <c r="C114" s="26">
         <v>40</v>
       </c>
-      <c r="D114" s="36">
+      <c r="D114" s="26">
         <v>28</v>
       </c>
-      <c r="E114" s="36">
+      <c r="E114" s="26">
         <v>54</v>
       </c>
-      <c r="F114" s="36">
+      <c r="F114" s="26">
         <v>12</v>
       </c>
       <c r="G114" s="4">
@@ -7363,16 +7363,16 @@
       <c r="B115" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="36">
+      <c r="C115" s="26">
         <v>40</v>
       </c>
-      <c r="D115" s="36">
+      <c r="D115" s="26">
         <v>28</v>
       </c>
-      <c r="E115" s="36">
+      <c r="E115" s="26">
         <v>54</v>
       </c>
-      <c r="F115" s="36">
+      <c r="F115" s="26">
         <v>14</v>
       </c>
       <c r="G115" s="4">
@@ -7394,16 +7394,16 @@
       <c r="B116" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C116" s="36">
+      <c r="C116" s="26">
         <v>40</v>
       </c>
-      <c r="D116" s="36">
+      <c r="D116" s="26">
         <v>28</v>
       </c>
-      <c r="E116" s="36">
+      <c r="E116" s="26">
         <v>54</v>
       </c>
-      <c r="F116" s="36">
+      <c r="F116" s="26">
         <v>2</v>
       </c>
       <c r="G116" s="4">
@@ -7424,16 +7424,16 @@
       <c r="B117" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C117" s="36">
-        <v>1</v>
-      </c>
-      <c r="D117" s="36">
-        <v>67</v>
-      </c>
-      <c r="E117" s="36">
+      <c r="C117" s="26">
+        <v>1</v>
+      </c>
+      <c r="D117" s="26">
+        <v>67</v>
+      </c>
+      <c r="E117" s="26">
         <v>28</v>
       </c>
-      <c r="F117" s="37">
+      <c r="F117" s="27">
         <v>4</v>
       </c>
       <c r="G117" s="4">
@@ -7454,16 +7454,16 @@
       <c r="B118" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="36">
-        <v>1</v>
-      </c>
-      <c r="D118" s="36">
-        <v>67</v>
-      </c>
-      <c r="E118" s="36">
+      <c r="C118" s="26">
+        <v>1</v>
+      </c>
+      <c r="D118" s="26">
+        <v>67</v>
+      </c>
+      <c r="E118" s="26">
         <v>33</v>
       </c>
-      <c r="F118" s="37">
+      <c r="F118" s="27">
         <v>1</v>
       </c>
       <c r="G118" s="4">
@@ -7484,16 +7484,16 @@
       <c r="B119" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C119" s="36">
-        <v>1</v>
-      </c>
-      <c r="D119" s="36">
-        <v>67</v>
-      </c>
-      <c r="E119" s="36">
+      <c r="C119" s="26">
+        <v>1</v>
+      </c>
+      <c r="D119" s="26">
+        <v>67</v>
+      </c>
+      <c r="E119" s="26">
         <v>40</v>
       </c>
-      <c r="F119" s="37">
+      <c r="F119" s="27">
         <v>5</v>
       </c>
       <c r="G119" s="4">
@@ -7514,16 +7514,16 @@
       <c r="B120" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C120" s="36">
-        <v>1</v>
-      </c>
-      <c r="D120" s="36">
-        <v>67</v>
-      </c>
-      <c r="E120" s="36">
+      <c r="C120" s="26">
+        <v>1</v>
+      </c>
+      <c r="D120" s="26">
+        <v>67</v>
+      </c>
+      <c r="E120" s="26">
         <v>54</v>
       </c>
-      <c r="F120" s="37">
+      <c r="F120" s="27">
         <v>3</v>
       </c>
       <c r="G120" s="4">
@@ -7547,10 +7547,10 @@
       <c r="B121" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="37"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="27"/>
       <c r="BP121" t="s">
         <v>15</v>
       </c>
@@ -7567,16 +7567,16 @@
       <c r="B122" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C122" s="36">
-        <v>1</v>
-      </c>
-      <c r="D122" s="36">
-        <v>67</v>
-      </c>
-      <c r="E122" s="36">
+      <c r="C122" s="26">
+        <v>1</v>
+      </c>
+      <c r="D122" s="26">
+        <v>67</v>
+      </c>
+      <c r="E122" s="26">
         <v>53</v>
       </c>
-      <c r="F122" s="37">
+      <c r="F122" s="27">
         <v>6</v>
       </c>
       <c r="G122" s="4">
@@ -7598,16 +7598,16 @@
       <c r="B123" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C123" s="36">
-        <v>1</v>
-      </c>
-      <c r="D123" s="36">
-        <v>67</v>
-      </c>
-      <c r="E123" s="36">
+      <c r="C123" s="26">
+        <v>1</v>
+      </c>
+      <c r="D123" s="26">
+        <v>67</v>
+      </c>
+      <c r="E123" s="26">
         <v>47</v>
       </c>
-      <c r="F123" s="37">
+      <c r="F123" s="27">
         <v>5</v>
       </c>
       <c r="G123" s="4">
@@ -7629,16 +7629,16 @@
       <c r="B124" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C124" s="36">
-        <v>1</v>
-      </c>
-      <c r="D124" s="36">
-        <v>67</v>
-      </c>
-      <c r="E124" s="36">
+      <c r="C124" s="26">
+        <v>1</v>
+      </c>
+      <c r="D124" s="26">
+        <v>67</v>
+      </c>
+      <c r="E124" s="26">
         <v>47</v>
       </c>
-      <c r="F124" s="37">
+      <c r="F124" s="27">
         <v>19</v>
       </c>
       <c r="G124" s="4">
@@ -7660,16 +7660,16 @@
       <c r="B125" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C125" s="36">
+      <c r="C125" s="26">
         <v>40</v>
       </c>
-      <c r="D125" s="36">
+      <c r="D125" s="26">
         <v>28</v>
       </c>
-      <c r="E125" s="36">
+      <c r="E125" s="26">
         <v>54</v>
       </c>
-      <c r="F125" s="36">
+      <c r="F125" s="26">
         <v>3</v>
       </c>
       <c r="G125" s="4">
@@ -7691,16 +7691,16 @@
       <c r="B126" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C126" s="36">
+      <c r="C126" s="26">
         <v>40</v>
       </c>
-      <c r="D126" s="36">
+      <c r="D126" s="26">
         <v>28</v>
       </c>
-      <c r="E126" s="36">
+      <c r="E126" s="26">
         <v>54</v>
       </c>
-      <c r="F126" s="36">
+      <c r="F126" s="26">
         <v>4</v>
       </c>
       <c r="G126" s="4">
@@ -7722,16 +7722,16 @@
       <c r="B127" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C127" s="36">
+      <c r="C127" s="26">
         <v>40</v>
       </c>
-      <c r="D127" s="36">
+      <c r="D127" s="26">
         <v>28</v>
       </c>
-      <c r="E127" s="36">
+      <c r="E127" s="26">
         <v>54</v>
       </c>
-      <c r="F127" s="36">
+      <c r="F127" s="26">
         <v>3</v>
       </c>
       <c r="G127" s="4">
@@ -7753,16 +7753,16 @@
       <c r="B128" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C128" s="36">
+      <c r="C128" s="26">
         <v>40</v>
       </c>
-      <c r="D128" s="36">
+      <c r="D128" s="26">
         <v>28</v>
       </c>
-      <c r="E128" s="36">
+      <c r="E128" s="26">
         <v>54</v>
       </c>
-      <c r="F128" s="36">
+      <c r="F128" s="26">
         <v>2</v>
       </c>
       <c r="G128" s="4">
@@ -7784,16 +7784,16 @@
       <c r="B129" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C129" s="36">
+      <c r="C129" s="26">
         <v>40</v>
       </c>
-      <c r="D129" s="36">
+      <c r="D129" s="26">
         <v>28</v>
       </c>
-      <c r="E129" s="36">
+      <c r="E129" s="26">
         <v>54</v>
       </c>
-      <c r="F129" s="36">
+      <c r="F129" s="26">
         <v>1</v>
       </c>
       <c r="G129" s="4">
@@ -7814,16 +7814,16 @@
       <c r="B130" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C130" s="36">
+      <c r="C130" s="26">
         <v>40</v>
       </c>
-      <c r="D130" s="36">
+      <c r="D130" s="26">
         <v>28</v>
       </c>
-      <c r="E130" s="36">
+      <c r="E130" s="26">
         <v>54</v>
       </c>
-      <c r="F130" s="36">
+      <c r="F130" s="26">
         <v>1</v>
       </c>
       <c r="G130" s="4">
@@ -7844,16 +7844,16 @@
       <c r="B131" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C131" s="36">
-        <v>1</v>
-      </c>
-      <c r="D131" s="36">
-        <v>67</v>
-      </c>
-      <c r="E131" s="36">
+      <c r="C131" s="26">
+        <v>1</v>
+      </c>
+      <c r="D131" s="26">
+        <v>67</v>
+      </c>
+      <c r="E131" s="26">
         <v>28</v>
       </c>
-      <c r="F131" s="37">
+      <c r="F131" s="27">
         <v>1</v>
       </c>
       <c r="G131" s="4">
@@ -7874,16 +7874,16 @@
       <c r="B132" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C132" s="36">
-        <v>1</v>
-      </c>
-      <c r="D132" s="36">
-        <v>67</v>
-      </c>
-      <c r="E132" s="36">
+      <c r="C132" s="26">
+        <v>1</v>
+      </c>
+      <c r="D132" s="26">
+        <v>67</v>
+      </c>
+      <c r="E132" s="26">
         <v>33</v>
       </c>
-      <c r="F132" s="37">
+      <c r="F132" s="27">
         <v>2</v>
       </c>
       <c r="G132" s="4">
@@ -7904,16 +7904,16 @@
       <c r="B133" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C133" s="36">
-        <v>1</v>
-      </c>
-      <c r="D133" s="36">
-        <v>67</v>
-      </c>
-      <c r="E133" s="36">
+      <c r="C133" s="26">
+        <v>1</v>
+      </c>
+      <c r="D133" s="26">
+        <v>67</v>
+      </c>
+      <c r="E133" s="26">
         <v>40</v>
       </c>
-      <c r="F133" s="37">
+      <c r="F133" s="27">
         <v>13</v>
       </c>
       <c r="G133" s="4">
@@ -7934,16 +7934,16 @@
       <c r="B134" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C134" s="36">
-        <v>1</v>
-      </c>
-      <c r="D134" s="36">
-        <v>67</v>
-      </c>
-      <c r="E134" s="36">
+      <c r="C134" s="26">
+        <v>1</v>
+      </c>
+      <c r="D134" s="26">
+        <v>67</v>
+      </c>
+      <c r="E134" s="26">
         <v>54</v>
       </c>
-      <c r="F134" s="37">
+      <c r="F134" s="27">
         <v>1</v>
       </c>
       <c r="G134" s="4">
@@ -7967,10 +7967,10 @@
       <c r="B135" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C135" s="36"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="37"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="27"/>
       <c r="BP135" t="s">
         <v>15</v>
       </c>
@@ -7987,16 +7987,16 @@
       <c r="B136" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C136" s="36">
-        <v>1</v>
-      </c>
-      <c r="D136" s="36">
-        <v>67</v>
-      </c>
-      <c r="E136" s="36">
+      <c r="C136" s="26">
+        <v>1</v>
+      </c>
+      <c r="D136" s="26">
+        <v>67</v>
+      </c>
+      <c r="E136" s="26">
         <v>53</v>
       </c>
-      <c r="F136" s="37">
+      <c r="F136" s="27">
         <v>4</v>
       </c>
       <c r="G136" s="4">
@@ -8018,16 +8018,16 @@
       <c r="B137" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C137" s="36">
-        <v>1</v>
-      </c>
-      <c r="D137" s="36">
-        <v>67</v>
-      </c>
-      <c r="E137" s="36">
+      <c r="C137" s="26">
+        <v>1</v>
+      </c>
+      <c r="D137" s="26">
+        <v>67</v>
+      </c>
+      <c r="E137" s="26">
         <v>47</v>
       </c>
-      <c r="F137" s="37">
+      <c r="F137" s="27">
         <v>1</v>
       </c>
       <c r="G137" s="4">
@@ -8049,16 +8049,16 @@
       <c r="B138" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C138" s="36">
-        <v>1</v>
-      </c>
-      <c r="D138" s="36">
-        <v>67</v>
-      </c>
-      <c r="E138" s="36">
+      <c r="C138" s="26">
+        <v>1</v>
+      </c>
+      <c r="D138" s="26">
+        <v>67</v>
+      </c>
+      <c r="E138" s="26">
         <v>47</v>
       </c>
-      <c r="F138" s="37">
+      <c r="F138" s="27">
         <v>1</v>
       </c>
       <c r="G138" s="4">
@@ -8080,16 +8080,16 @@
       <c r="B139" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C139" s="36">
+      <c r="C139" s="26">
         <v>40</v>
       </c>
-      <c r="D139" s="36">
+      <c r="D139" s="26">
         <v>28</v>
       </c>
-      <c r="E139" s="36">
+      <c r="E139" s="26">
         <v>54</v>
       </c>
-      <c r="F139" s="37">
+      <c r="F139" s="27">
         <v>1</v>
       </c>
       <c r="G139" s="4">
@@ -8111,16 +8111,16 @@
       <c r="B140" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C140" s="36">
+      <c r="C140" s="26">
         <v>40</v>
       </c>
-      <c r="D140" s="36">
+      <c r="D140" s="26">
         <v>28</v>
       </c>
-      <c r="E140" s="36">
+      <c r="E140" s="26">
         <v>54</v>
       </c>
-      <c r="F140" s="37">
+      <c r="F140" s="27">
         <v>1</v>
       </c>
       <c r="G140" s="4">
@@ -8142,16 +8142,16 @@
       <c r="B141" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="36">
+      <c r="C141" s="26">
         <v>40</v>
       </c>
-      <c r="D141" s="36">
+      <c r="D141" s="26">
         <v>28</v>
       </c>
-      <c r="E141" s="36">
+      <c r="E141" s="26">
         <v>54</v>
       </c>
-      <c r="F141" s="37">
+      <c r="F141" s="27">
         <v>1</v>
       </c>
       <c r="G141" s="4">
@@ -8173,16 +8173,16 @@
       <c r="B142" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C142" s="36">
+      <c r="C142" s="26">
         <v>40</v>
       </c>
-      <c r="D142" s="36">
+      <c r="D142" s="26">
         <v>28</v>
       </c>
-      <c r="E142" s="36">
+      <c r="E142" s="26">
         <v>54</v>
       </c>
-      <c r="F142" s="37">
+      <c r="F142" s="27">
         <v>1</v>
       </c>
       <c r="G142" s="4">
@@ -8204,16 +8204,16 @@
       <c r="B143" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C143" s="36">
+      <c r="C143" s="26">
         <v>40</v>
       </c>
-      <c r="D143" s="36">
+      <c r="D143" s="26">
         <v>28</v>
       </c>
-      <c r="E143" s="36">
+      <c r="E143" s="26">
         <v>54</v>
       </c>
-      <c r="F143" s="36">
+      <c r="F143" s="26">
         <v>1</v>
       </c>
       <c r="G143" s="4">
@@ -8234,16 +8234,16 @@
       <c r="B144" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C144" s="36">
+      <c r="C144" s="26">
         <v>40</v>
       </c>
-      <c r="D144" s="36">
-        <v>67</v>
-      </c>
-      <c r="E144" s="36">
+      <c r="D144" s="26">
+        <v>67</v>
+      </c>
+      <c r="E144" s="26">
         <v>28</v>
       </c>
-      <c r="F144" s="37">
+      <c r="F144" s="27">
         <v>4</v>
       </c>
       <c r="G144" s="4">
@@ -8264,16 +8264,16 @@
       <c r="B145" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="36">
+      <c r="C145" s="26">
         <v>40</v>
       </c>
-      <c r="D145" s="36">
-        <v>67</v>
-      </c>
-      <c r="E145" s="36">
+      <c r="D145" s="26">
+        <v>67</v>
+      </c>
+      <c r="E145" s="26">
         <v>33</v>
       </c>
-      <c r="F145" s="37">
+      <c r="F145" s="27">
         <v>1</v>
       </c>
       <c r="G145" s="4">
@@ -8294,16 +8294,16 @@
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C146" s="36">
+      <c r="C146" s="26">
         <v>40</v>
       </c>
-      <c r="D146" s="36">
-        <v>67</v>
-      </c>
-      <c r="E146" s="36">
+      <c r="D146" s="26">
+        <v>67</v>
+      </c>
+      <c r="E146" s="26">
         <v>40</v>
       </c>
-      <c r="F146" s="37">
+      <c r="F146" s="27">
         <v>5</v>
       </c>
       <c r="G146" s="4">
@@ -8324,16 +8324,16 @@
       <c r="B147" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="36">
+      <c r="C147" s="26">
         <v>40</v>
       </c>
-      <c r="D147" s="36">
-        <v>67</v>
-      </c>
-      <c r="E147" s="36">
+      <c r="D147" s="26">
+        <v>67</v>
+      </c>
+      <c r="E147" s="26">
         <v>54</v>
       </c>
-      <c r="F147" s="37">
+      <c r="F147" s="27">
         <v>3</v>
       </c>
       <c r="G147" s="4">
@@ -8357,10 +8357,10 @@
       <c r="B148" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="37"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="27"/>
       <c r="BP148" t="s">
         <v>15</v>
       </c>
@@ -8377,16 +8377,16 @@
       <c r="B149" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="36">
-        <v>1</v>
-      </c>
-      <c r="D149" s="36">
-        <v>67</v>
-      </c>
-      <c r="E149" s="36">
+      <c r="C149" s="26">
+        <v>1</v>
+      </c>
+      <c r="D149" s="26">
+        <v>67</v>
+      </c>
+      <c r="E149" s="26">
         <v>53</v>
       </c>
-      <c r="F149" s="37">
+      <c r="F149" s="27">
         <v>6</v>
       </c>
       <c r="G149" s="4">
@@ -8408,16 +8408,16 @@
       <c r="B150" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C150" s="36">
-        <v>1</v>
-      </c>
-      <c r="D150" s="36">
-        <v>67</v>
-      </c>
-      <c r="E150" s="36">
+      <c r="C150" s="26">
+        <v>1</v>
+      </c>
+      <c r="D150" s="26">
+        <v>67</v>
+      </c>
+      <c r="E150" s="26">
         <v>47</v>
       </c>
-      <c r="F150" s="37">
+      <c r="F150" s="27">
         <v>5</v>
       </c>
       <c r="G150" s="4">
@@ -8439,16 +8439,16 @@
       <c r="B151" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C151" s="36">
-        <v>1</v>
-      </c>
-      <c r="D151" s="36">
-        <v>67</v>
-      </c>
-      <c r="E151" s="36">
+      <c r="C151" s="26">
+        <v>1</v>
+      </c>
+      <c r="D151" s="26">
+        <v>67</v>
+      </c>
+      <c r="E151" s="26">
         <v>47</v>
       </c>
-      <c r="F151" s="37">
+      <c r="F151" s="27">
         <v>19</v>
       </c>
       <c r="G151" s="4">
@@ -8470,16 +8470,16 @@
       <c r="B152" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C152" s="36">
+      <c r="C152" s="26">
         <v>40</v>
       </c>
-      <c r="D152" s="36">
-        <v>67</v>
-      </c>
-      <c r="E152" s="36">
+      <c r="D152" s="26">
+        <v>67</v>
+      </c>
+      <c r="E152" s="26">
         <v>47</v>
       </c>
-      <c r="F152" s="36">
+      <c r="F152" s="26">
         <v>1</v>
       </c>
       <c r="G152" s="4">
@@ -8501,16 +8501,16 @@
       <c r="B153" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C153" s="36">
+      <c r="C153" s="26">
         <v>40</v>
       </c>
-      <c r="D153" s="36">
-        <v>67</v>
-      </c>
-      <c r="E153" s="36">
+      <c r="D153" s="26">
+        <v>67</v>
+      </c>
+      <c r="E153" s="26">
         <v>47</v>
       </c>
-      <c r="F153" s="36">
+      <c r="F153" s="26">
         <v>5</v>
       </c>
       <c r="G153" s="4">
@@ -8532,16 +8532,16 @@
       <c r="B154" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C154" s="36">
+      <c r="C154" s="26">
         <v>40</v>
       </c>
-      <c r="D154" s="36">
-        <v>67</v>
-      </c>
-      <c r="E154" s="36">
+      <c r="D154" s="26">
+        <v>67</v>
+      </c>
+      <c r="E154" s="26">
         <v>47</v>
       </c>
-      <c r="F154" s="36">
+      <c r="F154" s="26">
         <v>6</v>
       </c>
       <c r="G154" s="4">
@@ -8563,16 +8563,16 @@
       <c r="B155" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C155" s="36">
+      <c r="C155" s="26">
         <v>40</v>
       </c>
-      <c r="D155" s="36">
-        <v>67</v>
-      </c>
-      <c r="E155" s="36">
+      <c r="D155" s="26">
+        <v>67</v>
+      </c>
+      <c r="E155" s="26">
         <v>28</v>
       </c>
-      <c r="F155" s="39">
+      <c r="F155" s="29">
         <v>1</v>
       </c>
       <c r="G155" s="4">
@@ -8594,16 +8594,16 @@
       <c r="B156" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="36">
+      <c r="C156" s="26">
         <v>40</v>
       </c>
-      <c r="D156" s="36">
-        <v>67</v>
-      </c>
-      <c r="E156" s="36">
+      <c r="D156" s="26">
+        <v>67</v>
+      </c>
+      <c r="E156" s="26">
         <v>33</v>
       </c>
-      <c r="F156" s="39">
+      <c r="F156" s="29">
         <v>7</v>
       </c>
       <c r="G156" s="4">
@@ -8627,18 +8627,10 @@
       <c r="B157" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C157" s="36">
-        <v>1</v>
-      </c>
-      <c r="D157" s="36">
-        <v>67</v>
-      </c>
-      <c r="E157" s="36">
-        <v>40</v>
-      </c>
-      <c r="F157" s="39">
-        <v>7</v>
-      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="29"/>
       <c r="BP157" t="s">
         <v>15</v>
       </c>
@@ -8655,16 +8647,16 @@
       <c r="B158" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C158" s="36">
-        <v>1</v>
-      </c>
-      <c r="D158" s="36">
-        <v>67</v>
-      </c>
-      <c r="E158" s="36">
+      <c r="C158" s="26">
+        <v>1</v>
+      </c>
+      <c r="D158" s="26">
+        <v>67</v>
+      </c>
+      <c r="E158" s="26">
         <v>54</v>
       </c>
-      <c r="F158" s="39">
+      <c r="F158" s="29">
         <v>7</v>
       </c>
       <c r="G158" s="4">
@@ -8686,16 +8678,16 @@
       <c r="B159" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C159" s="36">
-        <v>1</v>
-      </c>
-      <c r="D159" s="36">
-        <v>67</v>
-      </c>
-      <c r="E159" s="36">
+      <c r="C159" s="26">
+        <v>1</v>
+      </c>
+      <c r="D159" s="26">
+        <v>67</v>
+      </c>
+      <c r="E159" s="26">
         <v>53</v>
       </c>
-      <c r="F159" s="39">
+      <c r="F159" s="29">
         <v>7</v>
       </c>
       <c r="G159" s="4">
@@ -8717,16 +8709,16 @@
       <c r="B160" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C160" s="36">
-        <v>1</v>
-      </c>
-      <c r="D160" s="36">
-        <v>67</v>
-      </c>
-      <c r="E160" s="36">
+      <c r="C160" s="26">
+        <v>1</v>
+      </c>
+      <c r="D160" s="26">
+        <v>67</v>
+      </c>
+      <c r="E160" s="26">
         <v>53</v>
       </c>
-      <c r="F160" s="39">
+      <c r="F160" s="29">
         <v>7</v>
       </c>
       <c r="G160" s="4">
@@ -8748,16 +8740,16 @@
       <c r="B161" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C161" s="36">
-        <v>1</v>
-      </c>
-      <c r="D161" s="36">
-        <v>67</v>
-      </c>
-      <c r="E161" s="36">
+      <c r="C161" s="26">
+        <v>1</v>
+      </c>
+      <c r="D161" s="26">
+        <v>67</v>
+      </c>
+      <c r="E161" s="26">
         <v>47</v>
       </c>
-      <c r="F161" s="39">
+      <c r="F161" s="29">
         <v>7</v>
       </c>
       <c r="G161" s="4">
@@ -8779,16 +8771,16 @@
       <c r="B162" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C162" s="36">
-        <v>1</v>
-      </c>
-      <c r="D162" s="36">
-        <v>67</v>
-      </c>
-      <c r="E162" s="36">
+      <c r="C162" s="26">
+        <v>1</v>
+      </c>
+      <c r="D162" s="26">
+        <v>67</v>
+      </c>
+      <c r="E162" s="26">
         <v>47</v>
       </c>
-      <c r="F162" s="39">
+      <c r="F162" s="29">
         <v>7</v>
       </c>
       <c r="G162" s="4">
@@ -8810,16 +8802,16 @@
       <c r="B163" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C163" s="36">
+      <c r="C163" s="26">
         <v>40</v>
       </c>
-      <c r="D163" s="36">
-        <v>67</v>
-      </c>
-      <c r="E163" s="36">
+      <c r="D163" s="26">
+        <v>67</v>
+      </c>
+      <c r="E163" s="26">
         <v>47</v>
       </c>
-      <c r="F163" s="39">
+      <c r="F163" s="29">
         <v>14</v>
       </c>
       <c r="G163" s="4">
@@ -8841,16 +8833,16 @@
       <c r="B164" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C164" s="36">
+      <c r="C164" s="26">
         <v>40</v>
       </c>
-      <c r="D164" s="36">
-        <v>67</v>
-      </c>
-      <c r="E164" s="36">
+      <c r="D164" s="26">
+        <v>67</v>
+      </c>
+      <c r="E164" s="26">
         <v>47</v>
       </c>
-      <c r="F164" s="39">
+      <c r="F164" s="29">
         <v>14</v>
       </c>
       <c r="G164" s="4">
@@ -8872,14 +8864,18 @@
       <c r="B165" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C165" s="36">
+      <c r="C165" s="26">
         <v>40</v>
       </c>
-      <c r="D165" s="36">
-        <v>67</v>
-      </c>
-      <c r="E165" s="36"/>
-      <c r="F165" s="36"/>
+      <c r="D165" s="26">
+        <v>67</v>
+      </c>
+      <c r="E165" s="26">
+        <v>47</v>
+      </c>
+      <c r="F165" s="29">
+        <v>14</v>
+      </c>
       <c r="G165" s="4">
         <v>1</v>
       </c>
@@ -8901,18 +8897,10 @@
       <c r="B166" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C166" s="36">
-        <v>1</v>
-      </c>
-      <c r="D166" s="36">
-        <v>67</v>
-      </c>
-      <c r="E166" s="36">
-        <v>28</v>
-      </c>
-      <c r="F166" s="39">
-        <v>1</v>
-      </c>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="29"/>
       <c r="BP166" t="s">
         <v>15</v>
       </c>
@@ -8929,16 +8917,16 @@
       <c r="B167" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C167" s="36">
-        <v>1</v>
-      </c>
-      <c r="D167" s="36">
-        <v>67</v>
-      </c>
-      <c r="E167" s="36">
+      <c r="C167" s="26">
+        <v>1</v>
+      </c>
+      <c r="D167" s="26">
+        <v>67</v>
+      </c>
+      <c r="E167" s="26">
         <v>33</v>
       </c>
-      <c r="F167" s="39">
+      <c r="F167" s="29">
         <v>7</v>
       </c>
       <c r="G167" s="4">
@@ -8960,16 +8948,16 @@
       <c r="B168" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C168" s="36">
-        <v>1</v>
-      </c>
-      <c r="D168" s="36">
-        <v>67</v>
-      </c>
-      <c r="E168" s="36">
+      <c r="C168" s="26">
+        <v>1</v>
+      </c>
+      <c r="D168" s="26">
+        <v>67</v>
+      </c>
+      <c r="E168" s="26">
         <v>40</v>
       </c>
-      <c r="F168" s="39">
+      <c r="F168" s="29">
         <v>7</v>
       </c>
       <c r="G168" s="4">
@@ -8991,16 +8979,16 @@
       <c r="B169" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C169" s="36">
-        <v>1</v>
-      </c>
-      <c r="D169" s="36">
-        <v>67</v>
-      </c>
-      <c r="E169" s="36">
+      <c r="C169" s="26">
+        <v>1</v>
+      </c>
+      <c r="D169" s="26">
+        <v>67</v>
+      </c>
+      <c r="E169" s="26">
         <v>54</v>
       </c>
-      <c r="F169" s="39">
+      <c r="F169" s="29">
         <v>7</v>
       </c>
       <c r="G169" s="4">
@@ -9022,16 +9010,16 @@
       <c r="B170" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C170" s="36">
-        <v>1</v>
-      </c>
-      <c r="D170" s="36">
-        <v>67</v>
-      </c>
-      <c r="E170" s="36">
+      <c r="C170" s="26">
+        <v>1</v>
+      </c>
+      <c r="D170" s="26">
+        <v>67</v>
+      </c>
+      <c r="E170" s="26">
         <v>53</v>
       </c>
-      <c r="F170" s="39">
+      <c r="F170" s="29">
         <v>7</v>
       </c>
       <c r="G170" s="4">
@@ -9053,16 +9041,16 @@
       <c r="B171" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C171" s="36">
-        <v>1</v>
-      </c>
-      <c r="D171" s="36">
-        <v>67</v>
-      </c>
-      <c r="E171" s="36">
+      <c r="C171" s="26">
+        <v>1</v>
+      </c>
+      <c r="D171" s="26">
+        <v>67</v>
+      </c>
+      <c r="E171" s="26">
         <v>53</v>
       </c>
-      <c r="F171" s="39">
+      <c r="F171" s="29">
         <v>7</v>
       </c>
       <c r="G171" s="4">
@@ -9084,16 +9072,16 @@
       <c r="B172" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C172" s="36">
-        <v>1</v>
-      </c>
-      <c r="D172" s="36">
-        <v>67</v>
-      </c>
-      <c r="E172" s="36">
+      <c r="C172" s="26">
+        <v>1</v>
+      </c>
+      <c r="D172" s="26">
+        <v>67</v>
+      </c>
+      <c r="E172" s="26">
         <v>47</v>
       </c>
-      <c r="F172" s="39">
+      <c r="F172" s="29">
         <v>7</v>
       </c>
       <c r="G172" s="4">
@@ -9115,16 +9103,16 @@
       <c r="B173" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C173" s="36">
-        <v>1</v>
-      </c>
-      <c r="D173" s="36">
-        <v>67</v>
-      </c>
-      <c r="E173" s="36">
+      <c r="C173" s="26">
+        <v>1</v>
+      </c>
+      <c r="D173" s="26">
+        <v>67</v>
+      </c>
+      <c r="E173" s="26">
         <v>47</v>
       </c>
-      <c r="F173" s="39">
+      <c r="F173" s="29">
         <v>7</v>
       </c>
       <c r="G173" s="4">
@@ -9146,16 +9134,16 @@
       <c r="B174" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C174" s="36">
+      <c r="C174" s="26">
         <v>40</v>
       </c>
-      <c r="D174" s="36">
-        <v>67</v>
-      </c>
-      <c r="E174" s="36">
+      <c r="D174" s="26">
+        <v>67</v>
+      </c>
+      <c r="E174" s="26">
         <v>47</v>
       </c>
-      <c r="F174" s="39">
+      <c r="F174" s="29">
         <v>14</v>
       </c>
       <c r="G174" s="4">
@@ -9179,18 +9167,10 @@
       <c r="B175" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C175" s="36">
-        <v>40</v>
-      </c>
-      <c r="D175" s="36">
-        <v>67</v>
-      </c>
-      <c r="E175" s="36">
-        <v>47</v>
-      </c>
-      <c r="F175" s="39">
-        <v>14</v>
-      </c>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="29"/>
       <c r="BP175" t="s">
         <v>15</v>
       </c>
@@ -9207,10 +9187,18 @@
       <c r="B176" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="36"/>
+      <c r="C176" s="26">
+        <v>40</v>
+      </c>
+      <c r="D176" s="26">
+        <v>67</v>
+      </c>
+      <c r="E176" s="26">
+        <v>47</v>
+      </c>
+      <c r="F176" s="29">
+        <v>14</v>
+      </c>
       <c r="G176" s="4">
         <v>1</v>
       </c>
@@ -9230,16 +9218,16 @@
       <c r="B177" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C177" s="36">
-        <v>1</v>
-      </c>
-      <c r="D177" s="36">
-        <v>67</v>
-      </c>
-      <c r="E177" s="36">
+      <c r="C177" s="26">
+        <v>1</v>
+      </c>
+      <c r="D177" s="26">
+        <v>67</v>
+      </c>
+      <c r="E177" s="26">
         <v>28</v>
       </c>
-      <c r="F177" s="37">
+      <c r="F177" s="27">
         <v>2</v>
       </c>
       <c r="G177" s="4">
@@ -9261,16 +9249,16 @@
       <c r="B178" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C178" s="36">
-        <v>1</v>
-      </c>
-      <c r="D178" s="36">
-        <v>67</v>
-      </c>
-      <c r="E178" s="36">
+      <c r="C178" s="26">
+        <v>1</v>
+      </c>
+      <c r="D178" s="26">
+        <v>67</v>
+      </c>
+      <c r="E178" s="26">
         <v>33</v>
       </c>
-      <c r="F178" s="37">
+      <c r="F178" s="27">
         <v>7</v>
       </c>
       <c r="G178" s="4">
@@ -9292,16 +9280,16 @@
       <c r="B179" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C179" s="36">
-        <v>1</v>
-      </c>
-      <c r="D179" s="36">
-        <v>67</v>
-      </c>
-      <c r="E179" s="36">
+      <c r="C179" s="26">
+        <v>1</v>
+      </c>
+      <c r="D179" s="26">
+        <v>67</v>
+      </c>
+      <c r="E179" s="26">
         <v>40</v>
       </c>
-      <c r="F179" s="37">
+      <c r="F179" s="27">
         <v>6</v>
       </c>
       <c r="G179" s="4">
@@ -9323,16 +9311,16 @@
       <c r="B180" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C180" s="36">
-        <v>1</v>
-      </c>
-      <c r="D180" s="36">
-        <v>67</v>
-      </c>
-      <c r="E180" s="36">
+      <c r="C180" s="26">
+        <v>1</v>
+      </c>
+      <c r="D180" s="26">
+        <v>67</v>
+      </c>
+      <c r="E180" s="26">
         <v>54</v>
       </c>
-      <c r="F180" s="37">
+      <c r="F180" s="27">
         <v>3</v>
       </c>
       <c r="G180" s="4">
@@ -9354,16 +9342,16 @@
       <c r="B181" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C181" s="36">
-        <v>1</v>
-      </c>
-      <c r="D181" s="36">
-        <v>67</v>
-      </c>
-      <c r="E181" s="36">
+      <c r="C181" s="26">
+        <v>1</v>
+      </c>
+      <c r="D181" s="26">
+        <v>67</v>
+      </c>
+      <c r="E181" s="26">
         <v>53</v>
       </c>
-      <c r="F181" s="37">
+      <c r="F181" s="27">
         <v>3</v>
       </c>
       <c r="G181" s="4">
@@ -9385,16 +9373,16 @@
       <c r="B182" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C182" s="36">
-        <v>1</v>
-      </c>
-      <c r="D182" s="36">
-        <v>67</v>
-      </c>
-      <c r="E182" s="36">
+      <c r="C182" s="26">
+        <v>1</v>
+      </c>
+      <c r="D182" s="26">
+        <v>67</v>
+      </c>
+      <c r="E182" s="26">
         <v>53</v>
       </c>
-      <c r="F182" s="37">
+      <c r="F182" s="27">
         <v>3</v>
       </c>
       <c r="G182" s="4">
@@ -9416,16 +9404,16 @@
       <c r="B183" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C183" s="36">
-        <v>1</v>
-      </c>
-      <c r="D183" s="36">
-        <v>67</v>
-      </c>
-      <c r="E183" s="36">
+      <c r="C183" s="26">
+        <v>1</v>
+      </c>
+      <c r="D183" s="26">
+        <v>67</v>
+      </c>
+      <c r="E183" s="26">
         <v>47</v>
       </c>
-      <c r="F183" s="37">
+      <c r="F183" s="27">
         <v>10</v>
       </c>
       <c r="G183" s="4">
@@ -9449,18 +9437,10 @@
       <c r="B184" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C184" s="36">
-        <v>1</v>
-      </c>
-      <c r="D184" s="36">
-        <v>67</v>
-      </c>
-      <c r="E184" s="36">
-        <v>47</v>
-      </c>
-      <c r="F184" s="37">
-        <v>7</v>
-      </c>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="27"/>
       <c r="BP184" t="s">
         <v>15</v>
       </c>
@@ -9477,16 +9457,16 @@
       <c r="B185" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C185" s="36">
+      <c r="C185" s="26">
         <v>40</v>
       </c>
-      <c r="D185" s="36">
-        <v>67</v>
-      </c>
-      <c r="E185" s="36">
+      <c r="D185" s="26">
+        <v>67</v>
+      </c>
+      <c r="E185" s="26">
         <v>47</v>
       </c>
-      <c r="F185" s="39">
+      <c r="F185" s="29">
         <v>2</v>
       </c>
       <c r="G185" s="4">
@@ -9508,16 +9488,16 @@
       <c r="B186" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C186" s="36">
+      <c r="C186" s="26">
         <v>40</v>
       </c>
-      <c r="D186" s="36">
-        <v>67</v>
-      </c>
-      <c r="E186" s="36">
+      <c r="D186" s="26">
+        <v>67</v>
+      </c>
+      <c r="E186" s="26">
         <v>47</v>
       </c>
-      <c r="F186" s="39">
+      <c r="F186" s="29">
         <v>14</v>
       </c>
       <c r="G186" s="4">
@@ -9539,10 +9519,18 @@
       <c r="B187" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C187" s="36"/>
-      <c r="D187" s="36"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36"/>
+      <c r="C187" s="26">
+        <v>40</v>
+      </c>
+      <c r="D187" s="26">
+        <v>67</v>
+      </c>
+      <c r="E187" s="26">
+        <v>47</v>
+      </c>
+      <c r="F187" s="26">
+        <v>5</v>
+      </c>
       <c r="G187" s="4">
         <v>1</v>
       </c>
@@ -9562,16 +9550,16 @@
       <c r="B188" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C188" s="36">
-        <v>1</v>
-      </c>
-      <c r="D188" s="36">
-        <v>67</v>
-      </c>
-      <c r="E188" s="36">
+      <c r="C188" s="26">
+        <v>1</v>
+      </c>
+      <c r="D188" s="26">
+        <v>67</v>
+      </c>
+      <c r="E188" s="26">
         <v>28</v>
       </c>
-      <c r="F188" s="37">
+      <c r="F188" s="27">
         <v>3</v>
       </c>
       <c r="G188" s="4">
@@ -9593,16 +9581,16 @@
       <c r="B189" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C189" s="36">
-        <v>1</v>
-      </c>
-      <c r="D189" s="36">
-        <v>67</v>
-      </c>
-      <c r="E189" s="36">
+      <c r="C189" s="26">
+        <v>1</v>
+      </c>
+      <c r="D189" s="26">
+        <v>67</v>
+      </c>
+      <c r="E189" s="26">
         <v>33</v>
       </c>
-      <c r="F189" s="37">
+      <c r="F189" s="27">
         <v>7</v>
       </c>
       <c r="G189" s="4">
@@ -9624,16 +9612,16 @@
       <c r="B190" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C190" s="36">
-        <v>1</v>
-      </c>
-      <c r="D190" s="36">
-        <v>67</v>
-      </c>
-      <c r="E190" s="36">
+      <c r="C190" s="26">
+        <v>1</v>
+      </c>
+      <c r="D190" s="26">
+        <v>67</v>
+      </c>
+      <c r="E190" s="26">
         <v>40</v>
       </c>
-      <c r="F190" s="37">
+      <c r="F190" s="27">
         <v>6</v>
       </c>
       <c r="G190" s="4">
@@ -9655,16 +9643,16 @@
       <c r="B191" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C191" s="36">
-        <v>1</v>
-      </c>
-      <c r="D191" s="36">
-        <v>67</v>
-      </c>
-      <c r="E191" s="36">
+      <c r="C191" s="26">
+        <v>1</v>
+      </c>
+      <c r="D191" s="26">
+        <v>67</v>
+      </c>
+      <c r="E191" s="26">
         <v>54</v>
       </c>
-      <c r="F191" s="37">
+      <c r="F191" s="27">
         <v>3</v>
       </c>
       <c r="G191" s="4">
@@ -9686,16 +9674,16 @@
       <c r="B192" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C192" s="36">
-        <v>1</v>
-      </c>
-      <c r="D192" s="36">
-        <v>67</v>
-      </c>
-      <c r="E192" s="36">
+      <c r="C192" s="26">
+        <v>1</v>
+      </c>
+      <c r="D192" s="26">
+        <v>67</v>
+      </c>
+      <c r="E192" s="26">
         <v>53</v>
       </c>
-      <c r="F192" s="37">
+      <c r="F192" s="27">
         <v>3</v>
       </c>
       <c r="G192" s="4">
@@ -9719,18 +9707,10 @@
       <c r="B193" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C193" s="36">
-        <v>1</v>
-      </c>
-      <c r="D193" s="36">
-        <v>67</v>
-      </c>
-      <c r="E193" s="36">
-        <v>53</v>
-      </c>
-      <c r="F193" s="37">
-        <v>3</v>
-      </c>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="27"/>
       <c r="BP193" t="s">
         <v>15</v>
       </c>
@@ -9747,16 +9727,16 @@
       <c r="B194" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C194" s="36">
-        <v>1</v>
-      </c>
-      <c r="D194" s="36">
-        <v>67</v>
-      </c>
-      <c r="E194" s="36">
+      <c r="C194" s="26">
+        <v>1</v>
+      </c>
+      <c r="D194" s="26">
+        <v>67</v>
+      </c>
+      <c r="E194" s="26">
         <v>47</v>
       </c>
-      <c r="F194" s="37">
+      <c r="F194" s="27">
         <v>12</v>
       </c>
       <c r="G194" s="4">
@@ -9778,16 +9758,16 @@
       <c r="B195" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C195" s="36">
-        <v>1</v>
-      </c>
-      <c r="D195" s="36">
-        <v>67</v>
-      </c>
-      <c r="E195" s="36">
+      <c r="C195" s="26">
+        <v>1</v>
+      </c>
+      <c r="D195" s="26">
+        <v>67</v>
+      </c>
+      <c r="E195" s="26">
         <v>47</v>
       </c>
-      <c r="F195" s="37">
+      <c r="F195" s="27">
         <v>7</v>
       </c>
       <c r="G195" s="4">
@@ -9809,16 +9789,16 @@
       <c r="B196" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C196" s="36">
+      <c r="C196" s="26">
         <v>40</v>
       </c>
-      <c r="D196" s="36">
-        <v>67</v>
-      </c>
-      <c r="E196" s="36">
+      <c r="D196" s="26">
+        <v>67</v>
+      </c>
+      <c r="E196" s="26">
         <v>47</v>
       </c>
-      <c r="F196" s="39">
+      <c r="F196" s="29">
         <v>2</v>
       </c>
       <c r="G196" s="4">
@@ -9840,16 +9820,16 @@
       <c r="B197" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C197" s="36">
+      <c r="C197" s="26">
         <v>40</v>
       </c>
-      <c r="D197" s="36">
-        <v>67</v>
-      </c>
-      <c r="E197" s="36">
+      <c r="D197" s="26">
+        <v>67</v>
+      </c>
+      <c r="E197" s="26">
         <v>47</v>
       </c>
-      <c r="F197" s="39">
+      <c r="F197" s="29">
         <v>14</v>
       </c>
       <c r="G197" s="4">
@@ -9871,10 +9851,18 @@
       <c r="B198" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="36"/>
-      <c r="E198" s="36"/>
-      <c r="F198" s="36"/>
+      <c r="C198" s="26">
+        <v>40</v>
+      </c>
+      <c r="D198" s="26">
+        <v>67</v>
+      </c>
+      <c r="E198" s="26">
+        <v>47</v>
+      </c>
+      <c r="F198" s="26">
+        <v>14</v>
+      </c>
       <c r="G198" s="4">
         <v>1</v>
       </c>
@@ -9894,16 +9882,16 @@
       <c r="B199" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C199" s="36">
-        <v>1</v>
-      </c>
-      <c r="D199" s="36">
-        <v>67</v>
-      </c>
-      <c r="E199" s="36">
+      <c r="C199" s="26">
+        <v>1</v>
+      </c>
+      <c r="D199" s="26">
+        <v>67</v>
+      </c>
+      <c r="E199" s="26">
         <v>28</v>
       </c>
-      <c r="F199" s="37">
+      <c r="F199" s="27">
         <v>2</v>
       </c>
       <c r="G199" s="4">
@@ -9925,16 +9913,16 @@
       <c r="B200" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C200" s="36">
-        <v>1</v>
-      </c>
-      <c r="D200" s="36">
-        <v>67</v>
-      </c>
-      <c r="E200" s="36">
+      <c r="C200" s="26">
+        <v>1</v>
+      </c>
+      <c r="D200" s="26">
+        <v>67</v>
+      </c>
+      <c r="E200" s="26">
         <v>33</v>
       </c>
-      <c r="F200" s="37">
+      <c r="F200" s="27">
         <v>3</v>
       </c>
       <c r="G200" s="4">
@@ -9956,16 +9944,16 @@
       <c r="B201" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C201" s="36">
-        <v>1</v>
-      </c>
-      <c r="D201" s="36">
-        <v>67</v>
-      </c>
-      <c r="E201" s="36">
+      <c r="C201" s="26">
+        <v>1</v>
+      </c>
+      <c r="D201" s="26">
+        <v>67</v>
+      </c>
+      <c r="E201" s="26">
         <v>40</v>
       </c>
-      <c r="F201" s="37">
+      <c r="F201" s="27">
         <v>2</v>
       </c>
       <c r="G201" s="4">
@@ -9989,16 +9977,16 @@
       <c r="B202" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C202" s="36">
-        <v>1</v>
-      </c>
-      <c r="D202" s="36">
-        <v>67</v>
-      </c>
-      <c r="E202" s="36">
+      <c r="C202" s="26">
+        <v>1</v>
+      </c>
+      <c r="D202" s="26">
+        <v>67</v>
+      </c>
+      <c r="E202" s="26">
         <v>54</v>
       </c>
-      <c r="F202" s="37">
+      <c r="F202" s="27">
         <v>2</v>
       </c>
       <c r="BP202" t="s">
@@ -10017,16 +10005,16 @@
       <c r="B203" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C203" s="36">
-        <v>1</v>
-      </c>
-      <c r="D203" s="36">
-        <v>67</v>
-      </c>
-      <c r="E203" s="36">
+      <c r="C203" s="26">
+        <v>1</v>
+      </c>
+      <c r="D203" s="26">
+        <v>67</v>
+      </c>
+      <c r="E203" s="26">
         <v>53</v>
       </c>
-      <c r="F203" s="37">
+      <c r="F203" s="27">
         <v>2</v>
       </c>
       <c r="G203" s="4">
@@ -10048,16 +10036,16 @@
       <c r="B204" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C204" s="36">
-        <v>1</v>
-      </c>
-      <c r="D204" s="36">
-        <v>67</v>
-      </c>
-      <c r="E204" s="36">
+      <c r="C204" s="26">
+        <v>1</v>
+      </c>
+      <c r="D204" s="26">
+        <v>67</v>
+      </c>
+      <c r="E204" s="26">
         <v>53</v>
       </c>
-      <c r="F204" s="37">
+      <c r="F204" s="27">
         <v>2</v>
       </c>
       <c r="G204" s="4">
@@ -10079,16 +10067,16 @@
       <c r="B205" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C205" s="36">
-        <v>1</v>
-      </c>
-      <c r="D205" s="36">
-        <v>67</v>
-      </c>
-      <c r="E205" s="36">
+      <c r="C205" s="26">
+        <v>1</v>
+      </c>
+      <c r="D205" s="26">
+        <v>67</v>
+      </c>
+      <c r="E205" s="26">
         <v>50</v>
       </c>
-      <c r="F205" s="37">
+      <c r="F205" s="27">
         <v>4</v>
       </c>
       <c r="G205" s="4">
@@ -10110,16 +10098,16 @@
       <c r="B206" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C206" s="36">
-        <v>1</v>
-      </c>
-      <c r="D206" s="36">
-        <v>67</v>
-      </c>
-      <c r="E206" s="36">
+      <c r="C206" s="26">
+        <v>1</v>
+      </c>
+      <c r="D206" s="26">
+        <v>67</v>
+      </c>
+      <c r="E206" s="26">
         <v>51</v>
       </c>
-      <c r="F206" s="37">
+      <c r="F206" s="27">
         <v>5</v>
       </c>
       <c r="G206" s="4">
@@ -10141,16 +10129,16 @@
       <c r="B207" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C207" s="36">
+      <c r="C207" s="26">
         <v>40</v>
       </c>
-      <c r="D207" s="36">
-        <v>67</v>
-      </c>
-      <c r="E207" s="36">
+      <c r="D207" s="26">
+        <v>67</v>
+      </c>
+      <c r="E207" s="26">
         <v>56</v>
       </c>
-      <c r="F207" s="37">
+      <c r="F207" s="27">
         <v>1</v>
       </c>
       <c r="G207" s="4">
@@ -10172,16 +10160,16 @@
       <c r="B208" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C208" s="36">
+      <c r="C208" s="26">
         <v>40</v>
       </c>
-      <c r="D208" s="36">
-        <v>67</v>
-      </c>
-      <c r="E208" s="36">
+      <c r="D208" s="26">
+        <v>67</v>
+      </c>
+      <c r="E208" s="26">
         <v>56</v>
       </c>
-      <c r="F208" s="36">
+      <c r="F208" s="26">
         <v>10</v>
       </c>
       <c r="G208" s="4">
@@ -10203,10 +10191,10 @@
       <c r="B209" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C209" s="36"/>
-      <c r="D209" s="36"/>
-      <c r="E209" s="36"/>
-      <c r="F209" s="36"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
+      <c r="F209" s="26"/>
       <c r="G209" s="4">
         <v>1</v>
       </c>
@@ -10226,16 +10214,16 @@
       <c r="B210" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C210" s="36">
-        <v>1</v>
-      </c>
-      <c r="D210" s="36">
-        <v>67</v>
-      </c>
-      <c r="E210" s="36">
+      <c r="C210" s="26">
+        <v>1</v>
+      </c>
+      <c r="D210" s="26">
+        <v>67</v>
+      </c>
+      <c r="E210" s="26">
         <v>28</v>
       </c>
-      <c r="F210" s="37">
+      <c r="F210" s="27">
         <v>3</v>
       </c>
       <c r="G210" s="4">
@@ -10259,16 +10247,16 @@
       <c r="B211" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C211" s="36">
-        <v>1</v>
-      </c>
-      <c r="D211" s="36">
-        <v>67</v>
-      </c>
-      <c r="E211" s="36">
+      <c r="C211" s="26">
+        <v>1</v>
+      </c>
+      <c r="D211" s="26">
+        <v>67</v>
+      </c>
+      <c r="E211" s="26">
         <v>33</v>
       </c>
-      <c r="F211" s="37">
+      <c r="F211" s="27">
         <v>2</v>
       </c>
       <c r="G211" s="4">
@@ -10290,16 +10278,16 @@
       <c r="B212" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C212" s="36">
-        <v>1</v>
-      </c>
-      <c r="D212" s="36">
-        <v>67</v>
-      </c>
-      <c r="E212" s="36">
+      <c r="C212" s="26">
+        <v>1</v>
+      </c>
+      <c r="D212" s="26">
+        <v>67</v>
+      </c>
+      <c r="E212" s="26">
         <v>40</v>
       </c>
-      <c r="F212" s="37">
+      <c r="F212" s="27">
         <v>2</v>
       </c>
       <c r="G212" s="4">
@@ -10323,16 +10311,16 @@
       <c r="B213" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C213" s="36">
-        <v>1</v>
-      </c>
-      <c r="D213" s="36">
-        <v>67</v>
-      </c>
-      <c r="E213" s="36">
+      <c r="C213" s="26">
+        <v>1</v>
+      </c>
+      <c r="D213" s="26">
+        <v>67</v>
+      </c>
+      <c r="E213" s="26">
         <v>54</v>
       </c>
-      <c r="F213" s="37">
+      <c r="F213" s="27">
         <v>3</v>
       </c>
       <c r="G213" s="4">
@@ -10354,16 +10342,16 @@
       <c r="B214" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C214" s="36">
-        <v>1</v>
-      </c>
-      <c r="D214" s="36">
-        <v>67</v>
-      </c>
-      <c r="E214" s="36">
+      <c r="C214" s="26">
+        <v>1</v>
+      </c>
+      <c r="D214" s="26">
+        <v>67</v>
+      </c>
+      <c r="E214" s="26">
         <v>53</v>
       </c>
-      <c r="F214" s="37">
+      <c r="F214" s="27">
         <v>3</v>
       </c>
       <c r="G214" s="4">
@@ -10385,16 +10373,16 @@
       <c r="B215" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C215" s="36">
-        <v>1</v>
-      </c>
-      <c r="D215" s="36">
-        <v>67</v>
-      </c>
-      <c r="E215" s="36">
+      <c r="C215" s="26">
+        <v>1</v>
+      </c>
+      <c r="D215" s="26">
+        <v>67</v>
+      </c>
+      <c r="E215" s="26">
         <v>53</v>
       </c>
-      <c r="F215" s="37">
+      <c r="F215" s="27">
         <v>3</v>
       </c>
       <c r="G215" s="4">
@@ -10418,16 +10406,16 @@
       <c r="B216" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C216" s="36">
-        <v>1</v>
-      </c>
-      <c r="D216" s="36">
-        <v>67</v>
-      </c>
-      <c r="E216" s="36">
+      <c r="C216" s="26">
+        <v>1</v>
+      </c>
+      <c r="D216" s="26">
+        <v>67</v>
+      </c>
+      <c r="E216" s="26">
         <v>47</v>
       </c>
-      <c r="F216" s="37">
+      <c r="F216" s="27">
         <v>8</v>
       </c>
       <c r="G216" s="4">
@@ -10451,16 +10439,16 @@
       <c r="B217" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C217" s="36">
-        <v>1</v>
-      </c>
-      <c r="D217" s="36">
-        <v>67</v>
-      </c>
-      <c r="E217" s="36">
+      <c r="C217" s="26">
+        <v>1</v>
+      </c>
+      <c r="D217" s="26">
+        <v>67</v>
+      </c>
+      <c r="E217" s="26">
         <v>47</v>
       </c>
-      <c r="F217" s="37">
+      <c r="F217" s="27">
         <v>5</v>
       </c>
       <c r="G217" s="4">
@@ -10481,16 +10469,16 @@
       <c r="B218" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C218" s="36">
+      <c r="C218" s="26">
         <v>40</v>
       </c>
-      <c r="D218" s="36">
-        <v>67</v>
-      </c>
-      <c r="E218" s="36">
+      <c r="D218" s="26">
+        <v>67</v>
+      </c>
+      <c r="E218" s="26">
         <v>54</v>
       </c>
-      <c r="F218" s="36">
+      <c r="F218" s="26">
         <v>3</v>
       </c>
       <c r="G218" s="4">
@@ -10514,18 +10502,10 @@
       <c r="B219" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C219" s="36">
-        <v>40</v>
-      </c>
-      <c r="D219" s="36">
-        <v>67</v>
-      </c>
-      <c r="E219" s="36">
-        <v>54</v>
-      </c>
-      <c r="F219" s="36">
-        <v>3</v>
-      </c>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="26"/>
       <c r="BP219" t="s">
         <v>15</v>
       </c>
@@ -10542,16 +10522,16 @@
       <c r="B220" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C220" s="36">
+      <c r="C220" s="26">
         <v>40</v>
       </c>
-      <c r="D220" s="36">
-        <v>67</v>
-      </c>
-      <c r="E220" s="36">
+      <c r="D220" s="26">
+        <v>67</v>
+      </c>
+      <c r="E220" s="26">
         <v>54</v>
       </c>
-      <c r="F220" s="36">
+      <c r="F220" s="26">
         <v>3</v>
       </c>
       <c r="G220" s="4">
@@ -10573,16 +10553,16 @@
       <c r="B221" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C221" s="36">
+      <c r="C221" s="26">
         <v>40</v>
       </c>
-      <c r="D221" s="36">
-        <v>67</v>
-      </c>
-      <c r="E221" s="36">
+      <c r="D221" s="26">
+        <v>67</v>
+      </c>
+      <c r="E221" s="26">
         <v>56</v>
       </c>
-      <c r="F221" s="36">
+      <c r="F221" s="26">
         <v>10</v>
       </c>
       <c r="G221" s="4">
@@ -10604,16 +10584,16 @@
       <c r="B222" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C222" s="36">
+      <c r="C222" s="26">
         <v>40</v>
       </c>
-      <c r="D222" s="36">
-        <v>67</v>
-      </c>
-      <c r="E222" s="36">
+      <c r="D222" s="26">
+        <v>67</v>
+      </c>
+      <c r="E222" s="26">
         <v>56</v>
       </c>
-      <c r="F222" s="36">
+      <c r="F222" s="26">
         <v>10</v>
       </c>
       <c r="G222" s="4">
@@ -10635,16 +10615,16 @@
       <c r="B223" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C223" s="36">
+      <c r="C223" s="26">
         <v>40</v>
       </c>
-      <c r="D223" s="36">
-        <v>67</v>
-      </c>
-      <c r="E223" s="36">
+      <c r="D223" s="26">
+        <v>67</v>
+      </c>
+      <c r="E223" s="26">
         <v>56</v>
       </c>
-      <c r="F223" s="36">
+      <c r="F223" s="26">
         <v>10</v>
       </c>
       <c r="G223" s="4">
@@ -10666,16 +10646,16 @@
       <c r="B224" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C224" s="36">
+      <c r="C224" s="26">
         <v>40</v>
       </c>
-      <c r="D224" s="36">
-        <v>67</v>
-      </c>
-      <c r="E224" s="36">
+      <c r="D224" s="26">
+        <v>67</v>
+      </c>
+      <c r="E224" s="26">
         <v>56</v>
       </c>
-      <c r="F224" s="36">
+      <c r="F224" s="26">
         <v>10</v>
       </c>
       <c r="G224" s="4">
@@ -10697,16 +10677,16 @@
       <c r="B225" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C225" s="36">
+      <c r="C225" s="26">
         <v>40</v>
       </c>
-      <c r="D225" s="36">
-        <v>67</v>
-      </c>
-      <c r="E225" s="36">
+      <c r="D225" s="26">
+        <v>67</v>
+      </c>
+      <c r="E225" s="26">
         <v>56</v>
       </c>
-      <c r="F225" s="36">
+      <c r="F225" s="26">
         <v>10</v>
       </c>
       <c r="G225" s="4">
@@ -10728,10 +10708,18 @@
       <c r="B226" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
-      <c r="E226" s="36"/>
-      <c r="F226" s="36"/>
+      <c r="C226" s="26">
+        <v>40</v>
+      </c>
+      <c r="D226" s="26">
+        <v>67</v>
+      </c>
+      <c r="E226" s="26">
+        <v>56</v>
+      </c>
+      <c r="F226" s="26">
+        <v>10</v>
+      </c>
       <c r="G226" s="4">
         <v>1</v>
       </c>
@@ -10751,16 +10739,16 @@
       <c r="B227" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C227" s="36">
-        <v>1</v>
-      </c>
-      <c r="D227" s="36">
-        <v>67</v>
-      </c>
-      <c r="E227" s="36">
+      <c r="C227" s="26">
+        <v>40</v>
+      </c>
+      <c r="D227" s="26">
+        <v>67</v>
+      </c>
+      <c r="E227" s="26">
         <v>28</v>
       </c>
-      <c r="F227" s="37">
+      <c r="F227" s="27">
         <v>1</v>
       </c>
       <c r="G227" s="4">
@@ -10781,16 +10769,16 @@
       <c r="B228" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C228" s="36">
-        <v>1</v>
-      </c>
-      <c r="D228" s="36">
-        <v>67</v>
-      </c>
-      <c r="E228" s="36">
+      <c r="C228" s="26">
+        <v>40</v>
+      </c>
+      <c r="D228" s="26">
+        <v>67</v>
+      </c>
+      <c r="E228" s="26">
         <v>33</v>
       </c>
-      <c r="F228" s="37">
+      <c r="F228" s="27">
         <v>2</v>
       </c>
       <c r="G228" s="4">
@@ -10811,16 +10799,16 @@
       <c r="B229" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C229" s="36">
-        <v>1</v>
-      </c>
-      <c r="D229" s="36">
-        <v>67</v>
-      </c>
-      <c r="E229" s="36">
+      <c r="C229" s="26">
         <v>40</v>
       </c>
-      <c r="F229" s="37">
+      <c r="D229" s="26">
+        <v>67</v>
+      </c>
+      <c r="E229" s="26">
+        <v>40</v>
+      </c>
+      <c r="F229" s="27">
         <v>4</v>
       </c>
       <c r="G229" s="4">
@@ -10841,16 +10829,16 @@
       <c r="B230" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C230" s="36">
-        <v>1</v>
-      </c>
-      <c r="D230" s="36">
-        <v>67</v>
-      </c>
-      <c r="E230" s="36">
+      <c r="C230" s="26">
+        <v>40</v>
+      </c>
+      <c r="D230" s="26">
+        <v>67</v>
+      </c>
+      <c r="E230" s="26">
         <v>54</v>
       </c>
-      <c r="F230" s="37">
+      <c r="F230" s="27">
         <v>2</v>
       </c>
       <c r="G230" s="4">
@@ -10871,16 +10859,16 @@
       <c r="B231" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C231" s="36">
-        <v>1</v>
-      </c>
-      <c r="D231" s="36">
-        <v>67</v>
-      </c>
-      <c r="E231" s="36">
+      <c r="C231" s="26">
+        <v>40</v>
+      </c>
+      <c r="D231" s="26">
+        <v>67</v>
+      </c>
+      <c r="E231" s="26">
         <v>53</v>
       </c>
-      <c r="F231" s="37">
+      <c r="F231" s="27">
         <v>3</v>
       </c>
       <c r="G231" s="4">

--- a/Activity_bar_chart.xlsx
+++ b/Activity_bar_chart.xlsx
@@ -3704,8 +3704,8 @@
   </sheetPr>
   <dimension ref="A1:BW231"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157:F157"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8627,10 +8627,18 @@
       <c r="B157" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="29"/>
+      <c r="C157" s="26">
+        <v>1</v>
+      </c>
+      <c r="D157" s="26">
+        <v>67</v>
+      </c>
+      <c r="E157" s="26">
+        <v>40</v>
+      </c>
+      <c r="F157" s="29">
+        <v>7</v>
+      </c>
       <c r="BP157" t="s">
         <v>15</v>
       </c>
@@ -8870,12 +8878,8 @@
       <c r="D165" s="26">
         <v>67</v>
       </c>
-      <c r="E165" s="26">
-        <v>47</v>
-      </c>
-      <c r="F165" s="29">
-        <v>14</v>
-      </c>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
       <c r="G165" s="4">
         <v>1</v>
       </c>
@@ -8897,10 +8901,18 @@
       <c r="B166" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-      <c r="F166" s="29"/>
+      <c r="C166" s="26">
+        <v>1</v>
+      </c>
+      <c r="D166" s="26">
+        <v>67</v>
+      </c>
+      <c r="E166" s="26">
+        <v>28</v>
+      </c>
+      <c r="F166" s="29">
+        <v>1</v>
+      </c>
       <c r="BP166" t="s">
         <v>15</v>
       </c>
@@ -9167,10 +9179,18 @@
       <c r="B175" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="29"/>
+      <c r="C175" s="26">
+        <v>40</v>
+      </c>
+      <c r="D175" s="26">
+        <v>67</v>
+      </c>
+      <c r="E175" s="26">
+        <v>47</v>
+      </c>
+      <c r="F175" s="29">
+        <v>14</v>
+      </c>
       <c r="BP175" t="s">
         <v>15</v>
       </c>
@@ -9187,18 +9207,10 @@
       <c r="B176" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C176" s="26">
-        <v>40</v>
-      </c>
-      <c r="D176" s="26">
-        <v>67</v>
-      </c>
-      <c r="E176" s="26">
-        <v>47</v>
-      </c>
-      <c r="F176" s="29">
-        <v>14</v>
-      </c>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
       <c r="G176" s="4">
         <v>1</v>
       </c>
@@ -9437,10 +9449,18 @@
       <c r="B184" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="27"/>
+      <c r="C184" s="26">
+        <v>1</v>
+      </c>
+      <c r="D184" s="26">
+        <v>67</v>
+      </c>
+      <c r="E184" s="26">
+        <v>47</v>
+      </c>
+      <c r="F184" s="27">
+        <v>7</v>
+      </c>
       <c r="BP184" t="s">
         <v>15</v>
       </c>
@@ -9519,18 +9539,10 @@
       <c r="B187" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C187" s="26">
-        <v>40</v>
-      </c>
-      <c r="D187" s="26">
-        <v>67</v>
-      </c>
-      <c r="E187" s="26">
-        <v>47</v>
-      </c>
-      <c r="F187" s="26">
-        <v>5</v>
-      </c>
+      <c r="C187" s="26"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="26"/>
       <c r="G187" s="4">
         <v>1</v>
       </c>
@@ -9707,10 +9719,18 @@
       <c r="B193" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-      <c r="F193" s="27"/>
+      <c r="C193" s="26">
+        <v>1</v>
+      </c>
+      <c r="D193" s="26">
+        <v>67</v>
+      </c>
+      <c r="E193" s="26">
+        <v>53</v>
+      </c>
+      <c r="F193" s="27">
+        <v>3</v>
+      </c>
       <c r="BP193" t="s">
         <v>15</v>
       </c>
@@ -9851,18 +9871,10 @@
       <c r="B198" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C198" s="26">
-        <v>40</v>
-      </c>
-      <c r="D198" s="26">
-        <v>67</v>
-      </c>
-      <c r="E198" s="26">
-        <v>47</v>
-      </c>
-      <c r="F198" s="26">
-        <v>14</v>
-      </c>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
+      <c r="F198" s="26"/>
       <c r="G198" s="4">
         <v>1</v>
       </c>
@@ -10502,10 +10514,18 @@
       <c r="B219" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="26"/>
+      <c r="C219" s="26">
+        <v>40</v>
+      </c>
+      <c r="D219" s="26">
+        <v>67</v>
+      </c>
+      <c r="E219" s="26">
+        <v>54</v>
+      </c>
+      <c r="F219" s="26">
+        <v>3</v>
+      </c>
       <c r="BP219" t="s">
         <v>15</v>
       </c>
@@ -10708,18 +10728,10 @@
       <c r="B226" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C226" s="26">
-        <v>40</v>
-      </c>
-      <c r="D226" s="26">
-        <v>67</v>
-      </c>
-      <c r="E226" s="26">
-        <v>56</v>
-      </c>
-      <c r="F226" s="26">
-        <v>10</v>
-      </c>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
+      <c r="F226" s="26"/>
       <c r="G226" s="4">
         <v>1</v>
       </c>
@@ -10740,7 +10752,7 @@
         <v>91</v>
       </c>
       <c r="C227" s="26">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D227" s="26">
         <v>67</v>
@@ -10770,7 +10782,7 @@
         <v>35</v>
       </c>
       <c r="C228" s="26">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D228" s="26">
         <v>67</v>
@@ -10800,7 +10812,7 @@
         <v>47</v>
       </c>
       <c r="C229" s="26">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D229" s="26">
         <v>67</v>
@@ -10830,7 +10842,7 @@
         <v>36</v>
       </c>
       <c r="C230" s="26">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D230" s="26">
         <v>67</v>
@@ -10860,7 +10872,7 @@
         <v>40</v>
       </c>
       <c r="C231" s="26">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D231" s="26">
         <v>67</v>
